--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\3rd year\projects\5th sem\Machine Learning\4_Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88ebdb2692b67ca3/Desktop/Machine-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE8214F-6115-4385-AA17-2EB02CDC0582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2784" yWindow="3540" windowWidth="15384" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2074,12 +2074,12 @@
   <dimension ref="A1:AE686"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D626" workbookViewId="0">
-      <selection activeCell="AF649" sqref="AF649"/>
+      <selection activeCell="K631" sqref="K631"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2120,7 +2120,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>4.6296296296296294E-5</v>
       </c>
@@ -2161,7 +2161,7 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>5.7870370370370373E-5</v>
       </c>
@@ -2202,7 +2202,7 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1.5046296296296297E-4</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1.7361111111111112E-4</v>
       </c>
@@ -2284,7 +2284,7 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2.199074074074074E-4</v>
       </c>
@@ -2325,7 +2325,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3.0092592592592595E-4</v>
       </c>
@@ -2366,7 +2366,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3.8194444444444446E-4</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>4.0509259259259258E-4</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>4.5138888888888887E-4</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>4.7453703703703704E-4</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>7.1759259259259259E-4</v>
       </c>
@@ -2571,7 +2571,7 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>8.3333333333333339E-4</v>
       </c>
@@ -2612,7 +2612,7 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>9.0277777777777774E-4</v>
       </c>
@@ -2653,7 +2653,7 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>9.3749999999999997E-4</v>
       </c>
@@ -2694,7 +2694,7 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1.0995370370370371E-3</v>
       </c>
@@ -2735,7 +2735,7 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1.1226851851851851E-3</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1.1458333333333333E-3</v>
       </c>
@@ -2817,7 +2817,7 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1.3078703703703703E-3</v>
       </c>
@@ -2858,7 +2858,7 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1.3078703703703703E-3</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>1.3541666666666667E-3</v>
       </c>
@@ -2940,7 +2940,7 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1.3773148148148147E-3</v>
       </c>
@@ -2981,7 +2981,7 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1.4120370370370369E-3</v>
       </c>
@@ -3022,7 +3022,7 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1.5393518518518519E-3</v>
       </c>
@@ -3063,7 +3063,7 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>1.8865740740740742E-3</v>
       </c>
@@ -3104,7 +3104,7 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1.9097222222222222E-3</v>
       </c>
@@ -3145,7 +3145,7 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1.9675925925925924E-3</v>
       </c>
@@ -3186,7 +3186,7 @@
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>2.0601851851851853E-3</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>2.2685185185185187E-3</v>
       </c>
@@ -3268,7 +3268,7 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2.3148148148148147E-3</v>
       </c>
@@ -3309,7 +3309,7 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>2.3495370370370371E-3</v>
       </c>
@@ -3350,7 +3350,7 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>2.3958333333333331E-3</v>
       </c>
@@ -3391,7 +3391,7 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>2.4537037037037036E-3</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>2.488425925925926E-3</v>
       </c>
@@ -3473,7 +3473,7 @@
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>2.5115740740740741E-3</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>2.5694444444444445E-3</v>
       </c>
@@ -3555,7 +3555,7 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>2.627314814814815E-3</v>
       </c>
@@ -3596,7 +3596,7 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>2.673611111111111E-3</v>
       </c>
@@ -3637,7 +3637,7 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>2.7083333333333334E-3</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>2.7777777777777779E-3</v>
       </c>
@@ -3719,7 +3719,7 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>2.9745370370370373E-3</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>3.0902777777777777E-3</v>
       </c>
@@ -3801,7 +3801,7 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>3.1365740740740742E-3</v>
       </c>
@@ -3842,7 +3842,7 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>3.3564814814814816E-3</v>
       </c>
@@ -3883,7 +3883,7 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>3.4375E-3</v>
       </c>
@@ -3924,7 +3924,7 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>3.449074074074074E-3</v>
       </c>
@@ -3965,7 +3965,7 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>3.4953703703703705E-3</v>
       </c>
@@ -4006,7 +4006,7 @@
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>3.5648148148148149E-3</v>
       </c>
@@ -4047,7 +4047,7 @@
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>3.5879629629629629E-3</v>
       </c>
@@ -4088,7 +4088,7 @@
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>3.6342592592592594E-3</v>
       </c>
@@ -4129,7 +4129,7 @@
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>3.6574074074074074E-3</v>
       </c>
@@ -4170,7 +4170,7 @@
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>3.6805555555555554E-3</v>
       </c>
@@ -4211,7 +4211,7 @@
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>3.7384259259259259E-3</v>
       </c>
@@ -4252,7 +4252,7 @@
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>3.7962962962962963E-3</v>
       </c>
@@ -4293,7 +4293,7 @@
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>3.8425925925925928E-3</v>
       </c>
@@ -4334,7 +4334,7 @@
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>3.8425925925925928E-3</v>
       </c>
@@ -4375,7 +4375,7 @@
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>3.8425925925925928E-3</v>
       </c>
@@ -4416,7 +4416,7 @@
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>3.9120370370370368E-3</v>
       </c>
@@ -4457,7 +4457,7 @@
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>4.0046296296296297E-3</v>
       </c>
@@ -4498,7 +4498,7 @@
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>4.0509259259259257E-3</v>
       </c>
@@ -4539,7 +4539,7 @@
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>4.0856481481481481E-3</v>
       </c>
@@ -4580,7 +4580,7 @@
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>4.1319444444444442E-3</v>
       </c>
@@ -4621,7 +4621,7 @@
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>4.1666666666666666E-3</v>
       </c>
@@ -4662,7 +4662,7 @@
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>4.2013888888888891E-3</v>
       </c>
@@ -4703,7 +4703,7 @@
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>4.2245370370370371E-3</v>
       </c>
@@ -4744,7 +4744,7 @@
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>4.2592592592592595E-3</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>4.3750000000000004E-3</v>
       </c>
@@ -4826,7 +4826,7 @@
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>4.409722222222222E-3</v>
       </c>
@@ -4867,7 +4867,7 @@
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>4.4560185185185189E-3</v>
       </c>
@@ -4908,7 +4908,7 @@
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>4.4560185185185189E-3</v>
       </c>
@@ -4949,7 +4949,7 @@
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>4.5833333333333334E-3</v>
       </c>
@@ -4990,7 +4990,7 @@
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>4.6296296296296294E-3</v>
       </c>
@@ -5031,7 +5031,7 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>4.6412037037037038E-3</v>
       </c>
@@ -5072,7 +5072,7 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>4.6990740740740743E-3</v>
       </c>
@@ -5113,7 +5113,7 @@
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>4.7222222222222223E-3</v>
       </c>
@@ -5154,7 +5154,7 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>4.7569444444444447E-3</v>
       </c>
@@ -5195,7 +5195,7 @@
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>4.8148148148148152E-3</v>
       </c>
@@ -5236,7 +5236,7 @@
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>4.8379629629629632E-3</v>
       </c>
@@ -5277,7 +5277,7 @@
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>4.9189814814814816E-3</v>
       </c>
@@ -5318,7 +5318,7 @@
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>4.9537037037037041E-3</v>
       </c>
@@ -5359,7 +5359,7 @@
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>4.9884259259259257E-3</v>
       </c>
@@ -5400,7 +5400,7 @@
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>5.0115740740740737E-3</v>
       </c>
@@ -5441,7 +5441,7 @@
       <c r="AD82" s="2"/>
       <c r="AE82" s="2"/>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>5.0578703703703706E-3</v>
       </c>
@@ -5482,7 +5482,7 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>5.0810185185185186E-3</v>
       </c>
@@ -5523,7 +5523,7 @@
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>5.1736111111111115E-3</v>
       </c>
@@ -5564,7 +5564,7 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>5.185185185185185E-3</v>
       </c>
@@ -5605,7 +5605,7 @@
       <c r="AD86" s="2"/>
       <c r="AE86" s="2"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>5.1967592592592595E-3</v>
       </c>
@@ -5646,7 +5646,7 @@
       <c r="AD87" s="2"/>
       <c r="AE87" s="2"/>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>5.208333333333333E-3</v>
       </c>
@@ -5687,7 +5687,7 @@
       <c r="AD88" s="2"/>
       <c r="AE88" s="2"/>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>5.2199074074074075E-3</v>
       </c>
@@ -5728,7 +5728,7 @@
       <c r="AD89" s="2"/>
       <c r="AE89" s="2"/>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>5.2199074074074075E-3</v>
       </c>
@@ -5769,7 +5769,7 @@
       <c r="AD90" s="2"/>
       <c r="AE90" s="2"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>5.2777777777777779E-3</v>
       </c>
@@ -5810,7 +5810,7 @@
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>5.37037037037037E-3</v>
       </c>
@@ -5851,7 +5851,7 @@
       <c r="AD92" s="2"/>
       <c r="AE92" s="2"/>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>5.4050925925925924E-3</v>
       </c>
@@ -5892,7 +5892,7 @@
       <c r="AD93" s="2"/>
       <c r="AE93" s="2"/>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>5.4398148148148149E-3</v>
       </c>
@@ -5933,7 +5933,7 @@
       <c r="AD94" s="2"/>
       <c r="AE94" s="2"/>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>5.4745370370370373E-3</v>
       </c>
@@ -5974,7 +5974,7 @@
       <c r="AD95" s="2"/>
       <c r="AE95" s="2"/>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>5.5208333333333333E-3</v>
       </c>
@@ -6015,7 +6015,7 @@
       <c r="AD96" s="2"/>
       <c r="AE96" s="2"/>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>5.5439814814814813E-3</v>
       </c>
@@ -6056,7 +6056,7 @@
       <c r="AD97" s="2"/>
       <c r="AE97" s="2"/>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>5.6134259259259262E-3</v>
       </c>
@@ -6097,7 +6097,7 @@
       <c r="AD98" s="2"/>
       <c r="AE98" s="2"/>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>5.6597222222222222E-3</v>
       </c>
@@ -6138,7 +6138,7 @@
       <c r="AD99" s="2"/>
       <c r="AE99" s="2"/>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>5.6944444444444447E-3</v>
       </c>
@@ -6179,7 +6179,7 @@
       <c r="AD100" s="2"/>
       <c r="AE100" s="2"/>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>5.7175925925925927E-3</v>
       </c>
@@ -6220,7 +6220,7 @@
       <c r="AD101" s="2"/>
       <c r="AE101" s="2"/>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>5.7523148148148151E-3</v>
       </c>
@@ -6261,7 +6261,7 @@
       <c r="AD102" s="2"/>
       <c r="AE102" s="2"/>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>5.7870370370370367E-3</v>
       </c>
@@ -6302,7 +6302,7 @@
       <c r="AD103" s="2"/>
       <c r="AE103" s="2"/>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>5.7870370370370367E-3</v>
       </c>
@@ -6343,7 +6343,7 @@
       <c r="AD104" s="2"/>
       <c r="AE104" s="2"/>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>5.8680555555555552E-3</v>
       </c>
@@ -6384,7 +6384,7 @@
       <c r="AD105" s="2"/>
       <c r="AE105" s="2"/>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>5.9143518518518521E-3</v>
       </c>
@@ -6425,7 +6425,7 @@
       <c r="AD106" s="2"/>
       <c r="AE106" s="2"/>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>5.9722222222222225E-3</v>
       </c>
@@ -6466,7 +6466,7 @@
       <c r="AD107" s="2"/>
       <c r="AE107" s="2"/>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>5.9953703703703705E-3</v>
       </c>
@@ -6507,7 +6507,7 @@
       <c r="AD108" s="2"/>
       <c r="AE108" s="2"/>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>6.0416666666666665E-3</v>
       </c>
@@ -6548,7 +6548,7 @@
       <c r="AD109" s="2"/>
       <c r="AE109" s="2"/>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>6.145833333333333E-3</v>
       </c>
@@ -6589,7 +6589,7 @@
       <c r="AD110" s="2"/>
       <c r="AE110" s="2"/>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>6.1921296296296299E-3</v>
       </c>
@@ -6630,7 +6630,7 @@
       <c r="AD111" s="2"/>
       <c r="AE111" s="2"/>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>6.2731481481481484E-3</v>
       </c>
@@ -6671,7 +6671,7 @@
       <c r="AD112" s="2"/>
       <c r="AE112" s="2"/>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>6.3194444444444444E-3</v>
       </c>
@@ -6712,7 +6712,7 @@
       <c r="AD113" s="2"/>
       <c r="AE113" s="2"/>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>6.3773148148148148E-3</v>
       </c>
@@ -6753,7 +6753,7 @@
       <c r="AD114" s="2"/>
       <c r="AE114" s="2"/>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>6.4004629629629628E-3</v>
       </c>
@@ -6794,7 +6794,7 @@
       <c r="AD115" s="2"/>
       <c r="AE115" s="2"/>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>6.4351851851851853E-3</v>
       </c>
@@ -6835,7 +6835,7 @@
       <c r="AD116" s="2"/>
       <c r="AE116" s="2"/>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>6.4814814814814813E-3</v>
       </c>
@@ -6876,7 +6876,7 @@
       <c r="AD117" s="2"/>
       <c r="AE117" s="2"/>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>6.5509259259259262E-3</v>
       </c>
@@ -6917,7 +6917,7 @@
       <c r="AD118" s="2"/>
       <c r="AE118" s="2"/>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>6.5740740740740742E-3</v>
       </c>
@@ -6958,7 +6958,7 @@
       <c r="AD119" s="2"/>
       <c r="AE119" s="2"/>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>6.6203703703703702E-3</v>
       </c>
@@ -6999,7 +6999,7 @@
       <c r="AD120" s="2"/>
       <c r="AE120" s="2"/>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>6.6550925925925927E-3</v>
       </c>
@@ -7040,7 +7040,7 @@
       <c r="AD121" s="2"/>
       <c r="AE121" s="2"/>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>6.6782407407407407E-3</v>
       </c>
@@ -7081,7 +7081,7 @@
       <c r="AD122" s="2"/>
       <c r="AE122" s="2"/>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>6.6898148148148151E-3</v>
       </c>
@@ -7122,7 +7122,7 @@
       <c r="AD123" s="2"/>
       <c r="AE123" s="2"/>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>6.7129629629629631E-3</v>
       </c>
@@ -7163,7 +7163,7 @@
       <c r="AD124" s="2"/>
       <c r="AE124" s="2"/>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>6.8055555555555551E-3</v>
       </c>
@@ -7204,7 +7204,7 @@
       <c r="AD125" s="2"/>
       <c r="AE125" s="2"/>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>6.851851851851852E-3</v>
       </c>
@@ -7245,7 +7245,7 @@
       <c r="AD126" s="2"/>
       <c r="AE126" s="2"/>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>6.8634259259259256E-3</v>
       </c>
@@ -7286,7 +7286,7 @@
       <c r="AD127" s="2"/>
       <c r="AE127" s="2"/>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>6.8865740740740745E-3</v>
       </c>
@@ -7327,7 +7327,7 @@
       <c r="AD128" s="2"/>
       <c r="AE128" s="2"/>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>6.9097222222222225E-3</v>
       </c>
@@ -7368,7 +7368,7 @@
       <c r="AD129" s="2"/>
       <c r="AE129" s="2"/>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>6.9097222222222225E-3</v>
       </c>
@@ -7409,7 +7409,7 @@
       <c r="AD130" s="2"/>
       <c r="AE130" s="2"/>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>6.9097222222222225E-3</v>
       </c>
@@ -7450,7 +7450,7 @@
       <c r="AD131" s="2"/>
       <c r="AE131" s="2"/>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>6.9560185185185185E-3</v>
       </c>
@@ -7491,7 +7491,7 @@
       <c r="AD132" s="2"/>
       <c r="AE132" s="2"/>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>6.9791666666666665E-3</v>
       </c>
@@ -7532,7 +7532,7 @@
       <c r="AD133" s="2"/>
       <c r="AE133" s="2"/>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>7.0023148148148145E-3</v>
       </c>
@@ -7573,7 +7573,7 @@
       <c r="AD134" s="2"/>
       <c r="AE134" s="2"/>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>7.0023148148148145E-3</v>
       </c>
@@ -7614,7 +7614,7 @@
       <c r="AD135" s="2"/>
       <c r="AE135" s="2"/>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>7.0023148148148145E-3</v>
       </c>
@@ -7655,7 +7655,7 @@
       <c r="AD136" s="2"/>
       <c r="AE136" s="2"/>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>7.1296296296296299E-3</v>
       </c>
@@ -7696,7 +7696,7 @@
       <c r="AD137" s="2"/>
       <c r="AE137" s="2"/>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>7.1527777777777779E-3</v>
       </c>
@@ -7737,7 +7737,7 @@
       <c r="AD138" s="2"/>
       <c r="AE138" s="2"/>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>7.1643518518518514E-3</v>
       </c>
@@ -7778,7 +7778,7 @@
       <c r="AD139" s="2"/>
       <c r="AE139" s="2"/>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
@@ -7819,7 +7819,7 @@
       <c r="AD140" s="2"/>
       <c r="AE140" s="2"/>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>7.2685185185185188E-3</v>
       </c>
@@ -7860,7 +7860,7 @@
       <c r="AD141" s="2"/>
       <c r="AE141" s="2"/>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>7.3032407407407404E-3</v>
       </c>
@@ -7901,7 +7901,7 @@
       <c r="AD142" s="2"/>
       <c r="AE142" s="2"/>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>7.3379629629629628E-3</v>
       </c>
@@ -7942,7 +7942,7 @@
       <c r="AD143" s="2"/>
       <c r="AE143" s="2"/>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>7.4074074074074077E-3</v>
       </c>
@@ -7983,7 +7983,7 @@
       <c r="AD144" s="2"/>
       <c r="AE144" s="2"/>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>7.4421296296296293E-3</v>
       </c>
@@ -8024,7 +8024,7 @@
       <c r="AD145" s="2"/>
       <c r="AE145" s="2"/>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>7.4884259259259262E-3</v>
       </c>
@@ -8065,7 +8065,7 @@
       <c r="AD146" s="2"/>
       <c r="AE146" s="2"/>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>7.5810185185185182E-3</v>
       </c>
@@ -8106,7 +8106,7 @@
       <c r="AD147" s="2"/>
       <c r="AE147" s="2"/>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>7.6388888888888886E-3</v>
       </c>
@@ -8147,7 +8147,7 @@
       <c r="AD148" s="2"/>
       <c r="AE148" s="2"/>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>7.743055555555556E-3</v>
       </c>
@@ -8188,7 +8188,7 @@
       <c r="AD149" s="2"/>
       <c r="AE149" s="2"/>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>7.7777777777777776E-3</v>
       </c>
@@ -8229,7 +8229,7 @@
       <c r="AD150" s="2"/>
       <c r="AE150" s="2"/>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>7.858796296296296E-3</v>
       </c>
@@ -8270,7 +8270,7 @@
       <c r="AD151" s="2"/>
       <c r="AE151" s="2"/>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>7.8819444444444449E-3</v>
       </c>
@@ -8311,7 +8311,7 @@
       <c r="AD152" s="2"/>
       <c r="AE152" s="2"/>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>7.905092592592592E-3</v>
       </c>
@@ -8352,7 +8352,7 @@
       <c r="AD153" s="2"/>
       <c r="AE153" s="2"/>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>7.9282407407407409E-3</v>
       </c>
@@ -8393,7 +8393,7 @@
       <c r="AD154" s="2"/>
       <c r="AE154" s="2"/>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>7.9398148148148145E-3</v>
       </c>
@@ -8434,7 +8434,7 @@
       <c r="AD155" s="2"/>
       <c r="AE155" s="2"/>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>1.1574074074074075E-4</v>
       </c>
@@ -8475,7 +8475,7 @@
       <c r="AD156" s="2"/>
       <c r="AE156" s="2"/>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>1.9675925925925926E-4</v>
       </c>
@@ -8516,7 +8516,7 @@
       <c r="AD157" s="2"/>
       <c r="AE157" s="2"/>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>2.3148148148148149E-4</v>
       </c>
@@ -8557,7 +8557,7 @@
       <c r="AD158" s="2"/>
       <c r="AE158" s="2"/>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>2.5462962962962961E-4</v>
       </c>
@@ -8598,7 +8598,7 @@
       <c r="AD159" s="2"/>
       <c r="AE159" s="2"/>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>2.6620370370370372E-4</v>
       </c>
@@ -8639,7 +8639,7 @@
       <c r="AD160" s="2"/>
       <c r="AE160" s="2"/>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>2.8935185185185184E-4</v>
       </c>
@@ -8680,7 +8680,7 @@
       <c r="AD161" s="2"/>
       <c r="AE161" s="2"/>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>3.2407407407407406E-4</v>
       </c>
@@ -8721,7 +8721,7 @@
       <c r="AD162" s="2"/>
       <c r="AE162" s="2"/>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>3.7037037037037035E-4</v>
       </c>
@@ -8762,7 +8762,7 @@
       <c r="AD163" s="2"/>
       <c r="AE163" s="2"/>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>3.7037037037037035E-4</v>
       </c>
@@ -8803,7 +8803,7 @@
       <c r="AD164" s="2"/>
       <c r="AE164" s="2"/>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>4.2824074074074075E-4</v>
       </c>
@@ -8844,7 +8844,7 @@
       <c r="AD165" s="2"/>
       <c r="AE165" s="2"/>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>4.9768518518518521E-4</v>
       </c>
@@ -8885,7 +8885,7 @@
       <c r="AD166" s="2"/>
       <c r="AE166" s="2"/>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>5.2083333333333333E-4</v>
       </c>
@@ -8926,7 +8926,7 @@
       <c r="AD167" s="2"/>
       <c r="AE167" s="2"/>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>5.5555555555555556E-4</v>
       </c>
@@ -8967,7 +8967,7 @@
       <c r="AD168" s="2"/>
       <c r="AE168" s="2"/>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>6.134259259259259E-4</v>
       </c>
@@ -9008,7 +9008,7 @@
       <c r="AD169" s="2"/>
       <c r="AE169" s="2"/>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>6.3657407407407413E-4</v>
       </c>
@@ -9049,7 +9049,7 @@
       <c r="AD170" s="2"/>
       <c r="AE170" s="2"/>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>6.7129629629629625E-4</v>
       </c>
@@ -9090,7 +9090,7 @@
       <c r="AD171" s="2"/>
       <c r="AE171" s="2"/>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>8.4490740740740739E-4</v>
       </c>
@@ -9131,7 +9131,7 @@
       <c r="AD172" s="2"/>
       <c r="AE172" s="2"/>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>8.6805555555555551E-4</v>
       </c>
@@ -9172,7 +9172,7 @@
       <c r="AD173" s="2"/>
       <c r="AE173" s="2"/>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>9.1435185185185185E-4</v>
       </c>
@@ -9213,7 +9213,7 @@
       <c r="AD174" s="2"/>
       <c r="AE174" s="2"/>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>1.0185185185185184E-3</v>
       </c>
@@ -9254,7 +9254,7 @@
       <c r="AD175" s="2"/>
       <c r="AE175" s="2"/>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>1.0300925925925926E-3</v>
       </c>
@@ -9295,7 +9295,7 @@
       <c r="AD176" s="2"/>
       <c r="AE176" s="2"/>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>1.0763888888888889E-3</v>
       </c>
@@ -9336,7 +9336,7 @@
       <c r="AD177" s="2"/>
       <c r="AE177" s="2"/>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>1.0995370370370371E-3</v>
       </c>
@@ -9377,7 +9377,7 @@
       <c r="AD178" s="2"/>
       <c r="AE178" s="2"/>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>1.3310185185185185E-3</v>
       </c>
@@ -9418,7 +9418,7 @@
       <c r="AD179" s="2"/>
       <c r="AE179" s="2"/>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>1.5625000000000001E-3</v>
       </c>
@@ -9459,7 +9459,7 @@
       <c r="AD180" s="2"/>
       <c r="AE180" s="2"/>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>1.6782407407407408E-3</v>
       </c>
@@ -9500,7 +9500,7 @@
       <c r="AD181" s="2"/>
       <c r="AE181" s="2"/>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>1.712962962962963E-3</v>
       </c>
@@ -9541,7 +9541,7 @@
       <c r="AD182" s="2"/>
       <c r="AE182" s="2"/>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>1.724537037037037E-3</v>
       </c>
@@ -9582,7 +9582,7 @@
       <c r="AD183" s="2"/>
       <c r="AE183" s="2"/>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>1.9097222222222222E-3</v>
       </c>
@@ -9623,7 +9623,7 @@
       <c r="AD184" s="2"/>
       <c r="AE184" s="2"/>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>2.0254629629629629E-3</v>
       </c>
@@ -9664,7 +9664,7 @@
       <c r="AD185" s="2"/>
       <c r="AE185" s="2"/>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>2.0370370370370369E-3</v>
       </c>
@@ -9705,7 +9705,7 @@
       <c r="AD186" s="2"/>
       <c r="AE186" s="2"/>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>2.0717592592592593E-3</v>
       </c>
@@ -9746,7 +9746,7 @@
       <c r="AD187" s="2"/>
       <c r="AE187" s="2"/>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>2.0949074074074073E-3</v>
       </c>
@@ -9787,7 +9787,7 @@
       <c r="AD188" s="2"/>
       <c r="AE188" s="2"/>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>2.0949074074074073E-3</v>
       </c>
@@ -9828,7 +9828,7 @@
       <c r="AD189" s="2"/>
       <c r="AE189" s="2"/>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>2.1990740740740742E-3</v>
       </c>
@@ -9869,7 +9869,7 @@
       <c r="AD190" s="2"/>
       <c r="AE190" s="2"/>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>2.3495370370370371E-3</v>
       </c>
@@ -9910,7 +9910,7 @@
       <c r="AD191" s="2"/>
       <c r="AE191" s="2"/>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>2.4074074074074076E-3</v>
       </c>
@@ -9951,7 +9951,7 @@
       <c r="AD192" s="2"/>
       <c r="AE192" s="2"/>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>2.4652777777777776E-3</v>
       </c>
@@ -9992,7 +9992,7 @@
       <c r="AD193" s="2"/>
       <c r="AE193" s="2"/>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>2.627314814814815E-3</v>
       </c>
@@ -10033,7 +10033,7 @@
       <c r="AD194" s="2"/>
       <c r="AE194" s="2"/>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>2.8587962962962963E-3</v>
       </c>
@@ -10074,7 +10074,7 @@
       <c r="AD195" s="2"/>
       <c r="AE195" s="2"/>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>2.8703703703703703E-3</v>
       </c>
@@ -10115,7 +10115,7 @@
       <c r="AD196" s="2"/>
       <c r="AE196" s="2"/>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>2.9513888888888888E-3</v>
       </c>
@@ -10156,7 +10156,7 @@
       <c r="AD197" s="2"/>
       <c r="AE197" s="2"/>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>3.0208333333333333E-3</v>
       </c>
@@ -10197,7 +10197,7 @@
       <c r="AD198" s="2"/>
       <c r="AE198" s="2"/>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>3.0902777777777777E-3</v>
       </c>
@@ -10238,7 +10238,7 @@
       <c r="AD199" s="2"/>
       <c r="AE199" s="2"/>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>3.1481481481481482E-3</v>
       </c>
@@ -10279,7 +10279,7 @@
       <c r="AD200" s="2"/>
       <c r="AE200" s="2"/>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>3.1481481481481482E-3</v>
       </c>
@@ -10320,7 +10320,7 @@
       <c r="AD201" s="2"/>
       <c r="AE201" s="2"/>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>3.1481481481481482E-3</v>
       </c>
@@ -10361,7 +10361,7 @@
       <c r="AD202" s="2"/>
       <c r="AE202" s="2"/>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>3.2175925925925926E-3</v>
       </c>
@@ -10402,7 +10402,7 @@
       <c r="AD203" s="2"/>
       <c r="AE203" s="2"/>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>3.2523148148148147E-3</v>
       </c>
@@ -10443,7 +10443,7 @@
       <c r="AD204" s="2"/>
       <c r="AE204" s="2"/>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>3.2638888888888891E-3</v>
       </c>
@@ -10484,7 +10484,7 @@
       <c r="AD205" s="2"/>
       <c r="AE205" s="2"/>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>3.2870370370370371E-3</v>
       </c>
@@ -10525,7 +10525,7 @@
       <c r="AD206" s="2"/>
       <c r="AE206" s="2"/>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>3.3101851851851851E-3</v>
       </c>
@@ -10566,7 +10566,7 @@
       <c r="AD207" s="2"/>
       <c r="AE207" s="2"/>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>3.3217592592592591E-3</v>
       </c>
@@ -10607,7 +10607,7 @@
       <c r="AD208" s="2"/>
       <c r="AE208" s="2"/>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>3.3449074074074076E-3</v>
       </c>
@@ -10648,7 +10648,7 @@
       <c r="AD209" s="2"/>
       <c r="AE209" s="2"/>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>3.414351851851852E-3</v>
       </c>
@@ -10689,7 +10689,7 @@
       <c r="AD210" s="2"/>
       <c r="AE210" s="2"/>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>3.460648148148148E-3</v>
       </c>
@@ -10730,7 +10730,7 @@
       <c r="AD211" s="2"/>
       <c r="AE211" s="2"/>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>3.4837962962962965E-3</v>
       </c>
@@ -10771,7 +10771,7 @@
       <c r="AD212" s="2"/>
       <c r="AE212" s="2"/>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>3.5069444444444445E-3</v>
       </c>
@@ -10812,7 +10812,7 @@
       <c r="AD213" s="2"/>
       <c r="AE213" s="2"/>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>3.5648148148148149E-3</v>
       </c>
@@ -10853,7 +10853,7 @@
       <c r="AD214" s="2"/>
       <c r="AE214" s="2"/>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>3.5879629629629629E-3</v>
       </c>
@@ -10894,7 +10894,7 @@
       <c r="AD215" s="2"/>
       <c r="AE215" s="2"/>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>3.6111111111111109E-3</v>
       </c>
@@ -10935,7 +10935,7 @@
       <c r="AD216" s="2"/>
       <c r="AE216" s="2"/>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>3.6574074074074074E-3</v>
       </c>
@@ -10976,7 +10976,7 @@
       <c r="AD217" s="2"/>
       <c r="AE217" s="2"/>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>3.9120370370370368E-3</v>
       </c>
@@ -11017,7 +11017,7 @@
       <c r="AD218" s="2"/>
       <c r="AE218" s="2"/>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>4.0393518518518521E-3</v>
       </c>
@@ -11058,7 +11058,7 @@
       <c r="AD219" s="2"/>
       <c r="AE219" s="2"/>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>4.2476851851851851E-3</v>
       </c>
@@ -11099,7 +11099,7 @@
       <c r="AD220" s="2"/>
       <c r="AE220" s="2"/>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>4.2708333333333331E-3</v>
       </c>
@@ -11140,7 +11140,7 @@
       <c r="AD221" s="2"/>
       <c r="AE221" s="2"/>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>4.2939814814814811E-3</v>
       </c>
@@ -11181,7 +11181,7 @@
       <c r="AD222" s="2"/>
       <c r="AE222" s="2"/>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>4.31712962962963E-3</v>
       </c>
@@ -11222,7 +11222,7 @@
       <c r="AD223" s="2"/>
       <c r="AE223" s="2"/>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>4.3518518518518515E-3</v>
       </c>
@@ -11263,7 +11263,7 @@
       <c r="AD224" s="2"/>
       <c r="AE224" s="2"/>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>4.3750000000000004E-3</v>
       </c>
@@ -11304,7 +11304,7 @@
       <c r="AD225" s="2"/>
       <c r="AE225" s="2"/>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>4.3750000000000004E-3</v>
       </c>
@@ -11345,7 +11345,7 @@
       <c r="AD226" s="2"/>
       <c r="AE226" s="2"/>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>4.3750000000000004E-3</v>
       </c>
@@ -11386,7 +11386,7 @@
       <c r="AD227" s="2"/>
       <c r="AE227" s="2"/>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>4.5023148148148149E-3</v>
       </c>
@@ -11427,7 +11427,7 @@
       <c r="AD228" s="2"/>
       <c r="AE228" s="2"/>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>4.5023148148148149E-3</v>
       </c>
@@ -11468,7 +11468,7 @@
       <c r="AD229" s="2"/>
       <c r="AE229" s="2"/>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>4.6180555555555558E-3</v>
       </c>
@@ -11509,7 +11509,7 @@
       <c r="AD230" s="2"/>
       <c r="AE230" s="2"/>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>4.8263888888888887E-3</v>
       </c>
@@ -11550,7 +11550,7 @@
       <c r="AD231" s="2"/>
       <c r="AE231" s="2"/>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>4.8495370370370368E-3</v>
       </c>
@@ -11591,7 +11591,7 @@
       <c r="AD232" s="2"/>
       <c r="AE232" s="2"/>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>4.8495370370370368E-3</v>
       </c>
@@ -11632,7 +11632,7 @@
       <c r="AD233" s="2"/>
       <c r="AE233" s="2"/>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>4.8842592592592592E-3</v>
       </c>
@@ -11673,7 +11673,7 @@
       <c r="AD234" s="2"/>
       <c r="AE234" s="2"/>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>4.9421296296296297E-3</v>
       </c>
@@ -11714,7 +11714,7 @@
       <c r="AD235" s="2"/>
       <c r="AE235" s="2"/>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>5.0694444444444441E-3</v>
       </c>
@@ -11755,7 +11755,7 @@
       <c r="AD236" s="2"/>
       <c r="AE236" s="2"/>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>5.162037037037037E-3</v>
       </c>
@@ -11796,7 +11796,7 @@
       <c r="AD237" s="2"/>
       <c r="AE237" s="2"/>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>5.2893518518518515E-3</v>
       </c>
@@ -11837,7 +11837,7 @@
       <c r="AD238" s="2"/>
       <c r="AE238" s="2"/>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>5.3587962962962964E-3</v>
       </c>
@@ -11878,7 +11878,7 @@
       <c r="AD239" s="2"/>
       <c r="AE239" s="2"/>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>5.4166666666666669E-3</v>
       </c>
@@ -11919,7 +11919,7 @@
       <c r="AD240" s="2"/>
       <c r="AE240" s="2"/>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>5.4166666666666669E-3</v>
       </c>
@@ -11960,7 +11960,7 @@
       <c r="AD241" s="2"/>
       <c r="AE241" s="2"/>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>5.4166666666666669E-3</v>
       </c>
@@ -12001,7 +12001,7 @@
       <c r="AD242" s="2"/>
       <c r="AE242" s="2"/>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>5.4166666666666669E-3</v>
       </c>
@@ -12042,7 +12042,7 @@
       <c r="AD243" s="2"/>
       <c r="AE243" s="2"/>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>5.4629629629629629E-3</v>
       </c>
@@ -12083,7 +12083,7 @@
       <c r="AD244" s="2"/>
       <c r="AE244" s="2"/>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>5.4861111111111109E-3</v>
       </c>
@@ -12124,7 +12124,7 @@
       <c r="AD245" s="2"/>
       <c r="AE245" s="2"/>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>5.5324074074074078E-3</v>
       </c>
@@ -12165,7 +12165,7 @@
       <c r="AD246" s="2"/>
       <c r="AE246" s="2"/>
     </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>5.5787037037037038E-3</v>
       </c>
@@ -12206,7 +12206,7 @@
       <c r="AD247" s="2"/>
       <c r="AE247" s="2"/>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>5.6712962962962967E-3</v>
       </c>
@@ -12247,7 +12247,7 @@
       <c r="AD248" s="2"/>
       <c r="AE248" s="2"/>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>5.7407407407407407E-3</v>
       </c>
@@ -12288,7 +12288,7 @@
       <c r="AD249" s="2"/>
       <c r="AE249" s="2"/>
     </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>5.8333333333333336E-3</v>
       </c>
@@ -12329,7 +12329,7 @@
       <c r="AD250" s="2"/>
       <c r="AE250" s="2"/>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>5.8796296296296296E-3</v>
       </c>
@@ -12370,7 +12370,7 @@
       <c r="AD251" s="2"/>
       <c r="AE251" s="2"/>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>6.0185185185185185E-3</v>
       </c>
@@ -12411,7 +12411,7 @@
       <c r="AD252" s="2"/>
       <c r="AE252" s="2"/>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>6.099537037037037E-3</v>
       </c>
@@ -12452,7 +12452,7 @@
       <c r="AD253" s="2"/>
       <c r="AE253" s="2"/>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>6.3078703703703708E-3</v>
       </c>
@@ -12493,7 +12493,7 @@
       <c r="AD254" s="2"/>
       <c r="AE254" s="2"/>
     </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>6.3425925925925924E-3</v>
       </c>
@@ -12534,7 +12534,7 @@
       <c r="AD255" s="2"/>
       <c r="AE255" s="2"/>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>6.4004629629629628E-3</v>
       </c>
@@ -12575,7 +12575,7 @@
       <c r="AD256" s="2"/>
       <c r="AE256" s="2"/>
     </row>
-    <row r="257" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>6.4699074074074077E-3</v>
       </c>
@@ -12616,7 +12616,7 @@
       <c r="AD257" s="2"/>
       <c r="AE257" s="2"/>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>6.5740740740740742E-3</v>
       </c>
@@ -12657,7 +12657,7 @@
       <c r="AD258" s="2"/>
       <c r="AE258" s="2"/>
     </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>6.6319444444444446E-3</v>
       </c>
@@ -12698,7 +12698,7 @@
       <c r="AD259" s="2"/>
       <c r="AE259" s="2"/>
     </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>6.6666666666666671E-3</v>
       </c>
@@ -12739,7 +12739,7 @@
       <c r="AD260" s="2"/>
       <c r="AE260" s="2"/>
     </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>6.6666666666666671E-3</v>
       </c>
@@ -12780,7 +12780,7 @@
       <c r="AD261" s="2"/>
       <c r="AE261" s="2"/>
     </row>
-    <row r="262" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>6.6666666666666671E-3</v>
       </c>
@@ -12821,7 +12821,7 @@
       <c r="AD262" s="2"/>
       <c r="AE262" s="2"/>
     </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>6.8402777777777776E-3</v>
       </c>
@@ -12862,7 +12862,7 @@
       <c r="AD263" s="2"/>
       <c r="AE263" s="2"/>
     </row>
-    <row r="264" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>6.8865740740740745E-3</v>
       </c>
@@ -12903,7 +12903,7 @@
       <c r="AD264" s="2"/>
       <c r="AE264" s="2"/>
     </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>6.8865740740740745E-3</v>
       </c>
@@ -12944,7 +12944,7 @@
       <c r="AD265" s="2"/>
       <c r="AE265" s="2"/>
     </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>6.8865740740740745E-3</v>
       </c>
@@ -12985,7 +12985,7 @@
       <c r="AD266" s="2"/>
       <c r="AE266" s="2"/>
     </row>
-    <row r="267" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>6.9675925925925929E-3</v>
       </c>
@@ -13026,7 +13026,7 @@
       <c r="AD267" s="2"/>
       <c r="AE267" s="2"/>
     </row>
-    <row r="268" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>7.083333333333333E-3</v>
       </c>
@@ -13067,7 +13067,7 @@
       <c r="AD268" s="2"/>
       <c r="AE268" s="2"/>
     </row>
-    <row r="269" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>7.1875000000000003E-3</v>
       </c>
@@ -13108,7 +13108,7 @@
       <c r="AD269" s="2"/>
       <c r="AE269" s="2"/>
     </row>
-    <row r="270" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>7.2106481481481483E-3</v>
       </c>
@@ -13149,7 +13149,7 @@
       <c r="AD270" s="2"/>
       <c r="AE270" s="2"/>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>7.2453703703703708E-3</v>
       </c>
@@ -13190,7 +13190,7 @@
       <c r="AD271" s="2"/>
       <c r="AE271" s="2"/>
     </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>7.2916666666666668E-3</v>
       </c>
@@ -13231,7 +13231,7 @@
       <c r="AD272" s="2"/>
       <c r="AE272" s="2"/>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>7.3495370370370372E-3</v>
       </c>
@@ -13272,7 +13272,7 @@
       <c r="AD273" s="2"/>
       <c r="AE273" s="2"/>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>7.5347222222222222E-3</v>
       </c>
@@ -13313,7 +13313,7 @@
       <c r="AD274" s="2"/>
       <c r="AE274" s="2"/>
     </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>7.6041666666666671E-3</v>
       </c>
@@ -13354,7 +13354,7 @@
       <c r="AD275" s="2"/>
       <c r="AE275" s="2"/>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>7.6388888888888886E-3</v>
       </c>
@@ -13395,7 +13395,7 @@
       <c r="AD276" s="2"/>
       <c r="AE276" s="2"/>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>7.6967592592592591E-3</v>
       </c>
@@ -13436,7 +13436,7 @@
       <c r="AD277" s="2"/>
       <c r="AE277" s="2"/>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>7.8240740740740736E-3</v>
       </c>
@@ -13477,7 +13477,7 @@
       <c r="AD278" s="2"/>
       <c r="AE278" s="2"/>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>7.8472222222222224E-3</v>
       </c>
@@ -13518,7 +13518,7 @@
       <c r="AD279" s="2"/>
       <c r="AE279" s="2"/>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>7.8472222222222224E-3</v>
       </c>
@@ -13559,7 +13559,7 @@
       <c r="AD280" s="2"/>
       <c r="AE280" s="2"/>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>7.8472222222222224E-3</v>
       </c>
@@ -13600,7 +13600,7 @@
       <c r="AD281" s="2"/>
       <c r="AE281" s="2"/>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>8.0324074074074082E-3</v>
       </c>
@@ -13641,7 +13641,7 @@
       <c r="AD282" s="2"/>
       <c r="AE282" s="2"/>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>8.1134259259259267E-3</v>
       </c>
@@ -13682,7 +13682,7 @@
       <c r="AD283" s="2"/>
       <c r="AE283" s="2"/>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>8.2291666666666659E-3</v>
       </c>
@@ -13723,7 +13723,7 @@
       <c r="AD284" s="2"/>
       <c r="AE284" s="2"/>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>8.2638888888888883E-3</v>
       </c>
@@ -13764,7 +13764,7 @@
       <c r="AD285" s="2"/>
       <c r="AE285" s="2"/>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>8.2870370370370372E-3</v>
       </c>
@@ -13805,7 +13805,7 @@
       <c r="AD286" s="2"/>
       <c r="AE286" s="2"/>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>8.3101851851851843E-3</v>
       </c>
@@ -13846,7 +13846,7 @@
       <c r="AD287" s="2"/>
       <c r="AE287" s="2"/>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>8.3680555555555557E-3</v>
       </c>
@@ -13887,7 +13887,7 @@
       <c r="AD288" s="2"/>
       <c r="AE288" s="2"/>
     </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>8.3796296296296292E-3</v>
       </c>
@@ -13928,7 +13928,7 @@
       <c r="AD289" s="2"/>
       <c r="AE289" s="2"/>
     </row>
-    <row r="290" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>8.4143518518518517E-3</v>
       </c>
@@ -13969,7 +13969,7 @@
       <c r="AD290" s="2"/>
       <c r="AE290" s="2"/>
     </row>
-    <row r="291" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>8.472222222222223E-3</v>
       </c>
@@ -14010,7 +14010,7 @@
       <c r="AD291" s="2"/>
       <c r="AE291" s="2"/>
     </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>8.5300925925925926E-3</v>
       </c>
@@ -14051,7 +14051,7 @@
       <c r="AD292" s="2"/>
       <c r="AE292" s="2"/>
     </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>8.5532407407407415E-3</v>
       </c>
@@ -14092,7 +14092,7 @@
       <c r="AD293" s="2"/>
       <c r="AE293" s="2"/>
     </row>
-    <row r="294" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>8.564814814814815E-3</v>
       </c>
@@ -14133,7 +14133,7 @@
       <c r="AD294" s="2"/>
       <c r="AE294" s="2"/>
     </row>
-    <row r="295" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>8.611111111111111E-3</v>
       </c>
@@ -14174,7 +14174,7 @@
       <c r="AD295" s="2"/>
       <c r="AE295" s="2"/>
     </row>
-    <row r="296" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>8.6342592592592599E-3</v>
       </c>
@@ -14215,7 +14215,7 @@
       <c r="AD296" s="2"/>
       <c r="AE296" s="2"/>
     </row>
-    <row r="297" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>8.773148148148148E-3</v>
       </c>
@@ -14256,7 +14256,7 @@
       <c r="AD297" s="2"/>
       <c r="AE297" s="2"/>
     </row>
-    <row r="298" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>8.7962962962962968E-3</v>
       </c>
@@ -14297,7 +14297,7 @@
       <c r="AD298" s="2"/>
       <c r="AE298" s="2"/>
     </row>
-    <row r="299" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>8.819444444444444E-3</v>
       </c>
@@ -14338,7 +14338,7 @@
       <c r="AD299" s="2"/>
       <c r="AE299" s="2"/>
     </row>
-    <row r="300" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>8.8425925925925929E-3</v>
       </c>
@@ -14379,7 +14379,7 @@
       <c r="AD300" s="2"/>
       <c r="AE300" s="2"/>
     </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
         <v>8.86574074074074E-3</v>
       </c>
@@ -14420,7 +14420,7 @@
       <c r="AD301" s="2"/>
       <c r="AE301" s="2"/>
     </row>
-    <row r="302" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
         <v>8.1018518518518516E-5</v>
       </c>
@@ -14461,7 +14461,7 @@
       <c r="AD302" s="2"/>
       <c r="AE302" s="2"/>
     </row>
-    <row r="303" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
         <v>1.3888888888888889E-4</v>
       </c>
@@ -14502,7 +14502,7 @@
       <c r="AD303" s="2"/>
       <c r="AE303" s="2"/>
     </row>
-    <row r="304" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>2.3148148148148149E-4</v>
       </c>
@@ -14543,7 +14543,7 @@
       <c r="AD304" s="2"/>
       <c r="AE304" s="2"/>
     </row>
-    <row r="305" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
         <v>3.3564814814814812E-4</v>
       </c>
@@ -14584,7 +14584,7 @@
       <c r="AD305" s="2"/>
       <c r="AE305" s="2"/>
     </row>
-    <row r="306" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
         <v>3.8194444444444446E-4</v>
       </c>
@@ -14625,7 +14625,7 @@
       <c r="AD306" s="2"/>
       <c r="AE306" s="2"/>
     </row>
-    <row r="307" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
         <v>4.3981481481481481E-4</v>
       </c>
@@ -14666,7 +14666,7 @@
       <c r="AD307" s="2"/>
       <c r="AE307" s="2"/>
     </row>
-    <row r="308" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
         <v>4.3981481481481481E-4</v>
       </c>
@@ -14707,7 +14707,7 @@
       <c r="AD308" s="2"/>
       <c r="AE308" s="2"/>
     </row>
-    <row r="309" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
         <v>4.3981481481481481E-4</v>
       </c>
@@ -14748,7 +14748,7 @@
       <c r="AD309" s="2"/>
       <c r="AE309" s="2"/>
     </row>
-    <row r="310" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
         <v>4.6296296296296298E-4</v>
       </c>
@@ -14789,7 +14789,7 @@
       <c r="AD310" s="2"/>
       <c r="AE310" s="2"/>
     </row>
-    <row r="311" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>4.861111111111111E-4</v>
       </c>
@@ -14830,7 +14830,7 @@
       <c r="AD311" s="2"/>
       <c r="AE311" s="2"/>
     </row>
-    <row r="312" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
         <v>5.2083333333333333E-4</v>
       </c>
@@ -14871,7 +14871,7 @@
       <c r="AD312" s="2"/>
       <c r="AE312" s="2"/>
     </row>
-    <row r="313" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A313" s="3">
         <v>5.3240740740740744E-4</v>
       </c>
@@ -14912,7 +14912,7 @@
       <c r="AD313" s="2"/>
       <c r="AE313" s="2"/>
     </row>
-    <row r="314" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A314" s="3">
         <v>7.5231481481481482E-4</v>
       </c>
@@ -14953,7 +14953,7 @@
       <c r="AD314" s="2"/>
       <c r="AE314" s="2"/>
     </row>
-    <row r="315" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
         <v>7.7546296296296293E-4</v>
       </c>
@@ -14994,7 +14994,7 @@
       <c r="AD315" s="2"/>
       <c r="AE315" s="2"/>
     </row>
-    <row r="316" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <v>8.9120370370370373E-4</v>
       </c>
@@ -15035,7 +15035,7 @@
       <c r="AD316" s="2"/>
       <c r="AE316" s="2"/>
     </row>
-    <row r="317" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
         <v>9.3749999999999997E-4</v>
       </c>
@@ -15076,7 +15076,7 @@
       <c r="AD317" s="2"/>
       <c r="AE317" s="2"/>
     </row>
-    <row r="318" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
         <v>9.6064814814814819E-4</v>
       </c>
@@ -15117,7 +15117,7 @@
       <c r="AD318" s="2"/>
       <c r="AE318" s="2"/>
     </row>
-    <row r="319" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
         <v>1.238425925925926E-3</v>
       </c>
@@ -15158,7 +15158,7 @@
       <c r="AD319" s="2"/>
       <c r="AE319" s="2"/>
     </row>
-    <row r="320" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
         <v>1.2962962962962963E-3</v>
       </c>
@@ -15199,7 +15199,7 @@
       <c r="AD320" s="2"/>
       <c r="AE320" s="2"/>
     </row>
-    <row r="321" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
         <v>1.3773148148148147E-3</v>
       </c>
@@ -15240,7 +15240,7 @@
       <c r="AD321" s="2"/>
       <c r="AE321" s="2"/>
     </row>
-    <row r="322" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
         <v>1.4004629629629629E-3</v>
       </c>
@@ -15281,7 +15281,7 @@
       <c r="AD322" s="2"/>
       <c r="AE322" s="2"/>
     </row>
-    <row r="323" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A323" s="3">
         <v>1.4004629629629629E-3</v>
       </c>
@@ -15322,7 +15322,7 @@
       <c r="AD323" s="2"/>
       <c r="AE323" s="2"/>
     </row>
-    <row r="324" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
         <v>1.4351851851851852E-3</v>
       </c>
@@ -15363,7 +15363,7 @@
       <c r="AD324" s="2"/>
       <c r="AE324" s="2"/>
     </row>
-    <row r="325" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>1.4467592592592592E-3</v>
       </c>
@@ -15404,7 +15404,7 @@
       <c r="AD325" s="2"/>
       <c r="AE325" s="2"/>
     </row>
-    <row r="326" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
         <v>1.4699074074074074E-3</v>
       </c>
@@ -15445,7 +15445,7 @@
       <c r="AD326" s="2"/>
       <c r="AE326" s="2"/>
     </row>
-    <row r="327" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
         <v>1.5972222222222223E-3</v>
       </c>
@@ -15486,7 +15486,7 @@
       <c r="AD327" s="2"/>
       <c r="AE327" s="2"/>
     </row>
-    <row r="328" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
         <v>1.6319444444444445E-3</v>
       </c>
@@ -15527,7 +15527,7 @@
       <c r="AD328" s="2"/>
       <c r="AE328" s="2"/>
     </row>
-    <row r="329" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
         <v>1.7013888888888888E-3</v>
       </c>
@@ -15568,7 +15568,7 @@
       <c r="AD329" s="2"/>
       <c r="AE329" s="2"/>
     </row>
-    <row r="330" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
         <v>1.724537037037037E-3</v>
       </c>
@@ -15609,7 +15609,7 @@
       <c r="AD330" s="2"/>
       <c r="AE330" s="2"/>
     </row>
-    <row r="331" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
         <v>1.724537037037037E-3</v>
       </c>
@@ -15650,7 +15650,7 @@
       <c r="AD331" s="2"/>
       <c r="AE331" s="2"/>
     </row>
-    <row r="332" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
         <v>1.7824074074074075E-3</v>
       </c>
@@ -15691,7 +15691,7 @@
       <c r="AD332" s="2"/>
       <c r="AE332" s="2"/>
     </row>
-    <row r="333" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A333" s="3">
         <v>1.8518518518518519E-3</v>
       </c>
@@ -15732,7 +15732,7 @@
       <c r="AD333" s="2"/>
       <c r="AE333" s="2"/>
     </row>
-    <row r="334" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
         <v>1.8634259259259259E-3</v>
       </c>
@@ -15773,7 +15773,7 @@
       <c r="AD334" s="2"/>
       <c r="AE334" s="2"/>
     </row>
-    <row r="335" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A335" s="3">
         <v>1.8981481481481482E-3</v>
       </c>
@@ -15814,7 +15814,7 @@
       <c r="AD335" s="2"/>
       <c r="AE335" s="2"/>
     </row>
-    <row r="336" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <v>1.9560185185185184E-3</v>
       </c>
@@ -15855,7 +15855,7 @@
       <c r="AD336" s="2"/>
       <c r="AE336" s="2"/>
     </row>
-    <row r="337" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
         <v>1.9907407407407408E-3</v>
       </c>
@@ -15896,7 +15896,7 @@
       <c r="AD337" s="2"/>
       <c r="AE337" s="2"/>
     </row>
-    <row r="338" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
         <v>2.0254629629629629E-3</v>
       </c>
@@ -15937,7 +15937,7 @@
       <c r="AD338" s="2"/>
       <c r="AE338" s="2"/>
     </row>
-    <row r="339" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
         <v>2.0833333333333333E-3</v>
       </c>
@@ -15978,7 +15978,7 @@
       <c r="AD339" s="2"/>
       <c r="AE339" s="2"/>
     </row>
-    <row r="340" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
         <v>2.1064814814814813E-3</v>
       </c>
@@ -16019,7 +16019,7 @@
       <c r="AD340" s="2"/>
       <c r="AE340" s="2"/>
     </row>
-    <row r="341" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
         <v>2.1180555555555558E-3</v>
       </c>
@@ -16060,7 +16060,7 @@
       <c r="AD341" s="2"/>
       <c r="AE341" s="2"/>
     </row>
-    <row r="342" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
         <v>2.627314814814815E-3</v>
       </c>
@@ -16101,7 +16101,7 @@
       <c r="AD342" s="2"/>
       <c r="AE342" s="2"/>
     </row>
-    <row r="343" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
         <v>2.627314814814815E-3</v>
       </c>
@@ -16142,7 +16142,7 @@
       <c r="AD343" s="2"/>
       <c r="AE343" s="2"/>
     </row>
-    <row r="344" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
         <v>2.650462962962963E-3</v>
       </c>
@@ -16183,7 +16183,7 @@
       <c r="AD344" s="2"/>
       <c r="AE344" s="2"/>
     </row>
-    <row r="345" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A345" s="3">
         <v>2.7083333333333334E-3</v>
       </c>
@@ -16224,7 +16224,7 @@
       <c r="AD345" s="2"/>
       <c r="AE345" s="2"/>
     </row>
-    <row r="346" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
         <v>2.7430555555555554E-3</v>
       </c>
@@ -16265,7 +16265,7 @@
       <c r="AD346" s="2"/>
       <c r="AE346" s="2"/>
     </row>
-    <row r="347" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A347" s="3">
         <v>2.7893518518518519E-3</v>
       </c>
@@ -16306,7 +16306,7 @@
       <c r="AD347" s="2"/>
       <c r="AE347" s="2"/>
     </row>
-    <row r="348" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
         <v>2.8587962962962963E-3</v>
       </c>
@@ -16347,7 +16347,7 @@
       <c r="AD348" s="2"/>
       <c r="AE348" s="2"/>
     </row>
-    <row r="349" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A349" s="3">
         <v>2.8587962962962963E-3</v>
       </c>
@@ -16388,7 +16388,7 @@
       <c r="AD349" s="2"/>
       <c r="AE349" s="2"/>
     </row>
-    <row r="350" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A350" s="3">
         <v>2.8587962962962963E-3</v>
       </c>
@@ -16429,7 +16429,7 @@
       <c r="AD350" s="2"/>
       <c r="AE350" s="2"/>
     </row>
-    <row r="351" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A351" s="3">
         <v>2.9629629629629628E-3</v>
       </c>
@@ -16470,7 +16470,7 @@
       <c r="AD351" s="2"/>
       <c r="AE351" s="2"/>
     </row>
-    <row r="352" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
         <v>2.9976851851851853E-3</v>
       </c>
@@ -16511,7 +16511,7 @@
       <c r="AD352" s="2"/>
       <c r="AE352" s="2"/>
     </row>
-    <row r="353" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A353" s="3">
         <v>3.0555555555555557E-3</v>
       </c>
@@ -16552,7 +16552,7 @@
       <c r="AD353" s="2"/>
       <c r="AE353" s="2"/>
     </row>
-    <row r="354" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A354" s="3">
         <v>3.1944444444444446E-3</v>
       </c>
@@ -16593,7 +16593,7 @@
       <c r="AD354" s="2"/>
       <c r="AE354" s="2"/>
     </row>
-    <row r="355" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A355" s="3">
         <v>3.2291666666666666E-3</v>
       </c>
@@ -16634,7 +16634,7 @@
       <c r="AD355" s="2"/>
       <c r="AE355" s="2"/>
     </row>
-    <row r="356" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A356" s="3">
         <v>3.2754629629629631E-3</v>
       </c>
@@ -16675,7 +16675,7 @@
       <c r="AD356" s="2"/>
       <c r="AE356" s="2"/>
     </row>
-    <row r="357" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A357" s="3">
         <v>3.3101851851851851E-3</v>
       </c>
@@ -16716,7 +16716,7 @@
       <c r="AD357" s="2"/>
       <c r="AE357" s="2"/>
     </row>
-    <row r="358" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A358" s="3">
         <v>3.3564814814814816E-3</v>
       </c>
@@ -16757,7 +16757,7 @@
       <c r="AD358" s="2"/>
       <c r="AE358" s="2"/>
     </row>
-    <row r="359" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A359" s="3">
         <v>3.4027777777777776E-3</v>
       </c>
@@ -16798,7 +16798,7 @@
       <c r="AD359" s="2"/>
       <c r="AE359" s="2"/>
     </row>
-    <row r="360" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A360" s="3">
         <v>3.425925925925926E-3</v>
       </c>
@@ -16839,7 +16839,7 @@
       <c r="AD360" s="2"/>
       <c r="AE360" s="2"/>
     </row>
-    <row r="361" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
         <v>3.4953703703703705E-3</v>
       </c>
@@ -16880,7 +16880,7 @@
       <c r="AD361" s="2"/>
       <c r="AE361" s="2"/>
     </row>
-    <row r="362" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A362" s="3">
         <v>3.5763888888888889E-3</v>
       </c>
@@ -16921,7 +16921,7 @@
       <c r="AD362" s="2"/>
       <c r="AE362" s="2"/>
     </row>
-    <row r="363" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
         <v>3.6342592592592594E-3</v>
       </c>
@@ -16962,7 +16962,7 @@
       <c r="AD363" s="2"/>
       <c r="AE363" s="2"/>
     </row>
-    <row r="364" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A364" s="3">
         <v>3.6921296296296298E-3</v>
       </c>
@@ -17003,7 +17003,7 @@
       <c r="AD364" s="2"/>
       <c r="AE364" s="2"/>
     </row>
-    <row r="365" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A365" s="3">
         <v>3.7384259259259259E-3</v>
       </c>
@@ -17044,7 +17044,7 @@
       <c r="AD365" s="2"/>
       <c r="AE365" s="2"/>
     </row>
-    <row r="366" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
         <v>3.8078703703703703E-3</v>
       </c>
@@ -17085,7 +17085,7 @@
       <c r="AD366" s="2"/>
       <c r="AE366" s="2"/>
     </row>
-    <row r="367" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A367" s="3">
         <v>3.9236111111111112E-3</v>
       </c>
@@ -17126,7 +17126,7 @@
       <c r="AD367" s="2"/>
       <c r="AE367" s="2"/>
     </row>
-    <row r="368" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
         <v>3.9467592592592592E-3</v>
       </c>
@@ -17167,7 +17167,7 @@
       <c r="AD368" s="2"/>
       <c r="AE368" s="2"/>
     </row>
-    <row r="369" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A369" s="3">
         <v>3.9467592592592592E-3</v>
       </c>
@@ -17208,7 +17208,7 @@
       <c r="AD369" s="2"/>
       <c r="AE369" s="2"/>
     </row>
-    <row r="370" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
         <v>3.9930555555555552E-3</v>
       </c>
@@ -17249,7 +17249,7 @@
       <c r="AD370" s="2"/>
       <c r="AE370" s="2"/>
     </row>
-    <row r="371" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A371" s="3">
         <v>4.0046296296296297E-3</v>
       </c>
@@ -17290,7 +17290,7 @@
       <c r="AD371" s="2"/>
       <c r="AE371" s="2"/>
     </row>
-    <row r="372" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A372" s="3">
         <v>4.0277777777777777E-3</v>
       </c>
@@ -17331,7 +17331,7 @@
       <c r="AD372" s="2"/>
       <c r="AE372" s="2"/>
     </row>
-    <row r="373" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A373" s="3">
         <v>4.0277777777777777E-3</v>
       </c>
@@ -17372,7 +17372,7 @@
       <c r="AD373" s="2"/>
       <c r="AE373" s="2"/>
     </row>
-    <row r="374" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
         <v>4.0856481481481481E-3</v>
       </c>
@@ -17413,7 +17413,7 @@
       <c r="AD374" s="2"/>
       <c r="AE374" s="2"/>
     </row>
-    <row r="375" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A375" s="3">
         <v>4.1666666666666666E-3</v>
       </c>
@@ -17454,7 +17454,7 @@
       <c r="AD375" s="2"/>
       <c r="AE375" s="2"/>
     </row>
-    <row r="376" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A376" s="3">
         <v>4.2013888888888891E-3</v>
       </c>
@@ -17495,7 +17495,7 @@
       <c r="AD376" s="2"/>
       <c r="AE376" s="2"/>
     </row>
-    <row r="377" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A377" s="3">
         <v>4.31712962962963E-3</v>
       </c>
@@ -17536,7 +17536,7 @@
       <c r="AD377" s="2"/>
       <c r="AE377" s="2"/>
     </row>
-    <row r="378" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A378" s="3">
         <v>4.363425925925926E-3</v>
       </c>
@@ -17577,7 +17577,7 @@
       <c r="AD378" s="2"/>
       <c r="AE378" s="2"/>
     </row>
-    <row r="379" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A379" s="3">
         <v>4.363425925925926E-3</v>
       </c>
@@ -17618,7 +17618,7 @@
       <c r="AD379" s="2"/>
       <c r="AE379" s="2"/>
     </row>
-    <row r="380" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A380" s="3">
         <v>4.3981481481481484E-3</v>
       </c>
@@ -17659,7 +17659,7 @@
       <c r="AD380" s="2"/>
       <c r="AE380" s="2"/>
     </row>
-    <row r="381" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A381" s="3">
         <v>4.4444444444444444E-3</v>
       </c>
@@ -17700,7 +17700,7 @@
       <c r="AD381" s="2"/>
       <c r="AE381" s="2"/>
     </row>
-    <row r="382" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A382" s="3">
         <v>4.5370370370370373E-3</v>
       </c>
@@ -17741,7 +17741,7 @@
       <c r="AD382" s="2"/>
       <c r="AE382" s="2"/>
     </row>
-    <row r="383" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A383" s="3">
         <v>4.5486111111111109E-3</v>
       </c>
@@ -17782,7 +17782,7 @@
       <c r="AD383" s="2"/>
       <c r="AE383" s="2"/>
     </row>
-    <row r="384" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A384" s="3">
         <v>4.5949074074074078E-3</v>
       </c>
@@ -17823,7 +17823,7 @@
       <c r="AD384" s="2"/>
       <c r="AE384" s="2"/>
     </row>
-    <row r="385" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A385" s="3">
         <v>4.6412037037037038E-3</v>
       </c>
@@ -17864,7 +17864,7 @@
       <c r="AD385" s="2"/>
       <c r="AE385" s="2"/>
     </row>
-    <row r="386" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A386" s="3">
         <v>4.7453703703703703E-3</v>
       </c>
@@ -17905,7 +17905,7 @@
       <c r="AD386" s="2"/>
       <c r="AE386" s="2"/>
     </row>
-    <row r="387" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A387" s="3">
         <v>4.7569444444444447E-3</v>
       </c>
@@ -17946,7 +17946,7 @@
       <c r="AD387" s="2"/>
       <c r="AE387" s="2"/>
     </row>
-    <row r="388" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A388" s="3">
         <v>4.8032407407407407E-3</v>
       </c>
@@ -17987,7 +17987,7 @@
       <c r="AD388" s="2"/>
       <c r="AE388" s="2"/>
     </row>
-    <row r="389" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A389" s="3">
         <v>4.9189814814814816E-3</v>
       </c>
@@ -18028,7 +18028,7 @@
       <c r="AD389" s="2"/>
       <c r="AE389" s="2"/>
     </row>
-    <row r="390" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A390" s="3">
         <v>4.9305555555555552E-3</v>
       </c>
@@ -18069,7 +18069,7 @@
       <c r="AD390" s="2"/>
       <c r="AE390" s="2"/>
     </row>
-    <row r="391" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A391" s="3">
         <v>4.9305555555555552E-3</v>
       </c>
@@ -18110,7 +18110,7 @@
       <c r="AD391" s="2"/>
       <c r="AE391" s="2"/>
     </row>
-    <row r="392" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A392" s="3">
         <v>4.9768518518518521E-3</v>
       </c>
@@ -18151,7 +18151,7 @@
       <c r="AD392" s="2"/>
       <c r="AE392" s="2"/>
     </row>
-    <row r="393" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A393" s="3">
         <v>5.0115740740740737E-3</v>
       </c>
@@ -18192,7 +18192,7 @@
       <c r="AD393" s="2"/>
       <c r="AE393" s="2"/>
     </row>
-    <row r="394" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A394" s="3">
         <v>5.0347222222222225E-3</v>
       </c>
@@ -18233,7 +18233,7 @@
       <c r="AD394" s="2"/>
       <c r="AE394" s="2"/>
     </row>
-    <row r="395" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A395" s="3">
         <v>5.1041666666666666E-3</v>
       </c>
@@ -18274,7 +18274,7 @@
       <c r="AD395" s="2"/>
       <c r="AE395" s="2"/>
     </row>
-    <row r="396" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A396" s="3">
         <v>5.115740740740741E-3</v>
       </c>
@@ -18315,7 +18315,7 @@
       <c r="AD396" s="2"/>
       <c r="AE396" s="2"/>
     </row>
-    <row r="397" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A397" s="3">
         <v>5.1736111111111115E-3</v>
       </c>
@@ -18356,7 +18356,7 @@
       <c r="AD397" s="2"/>
       <c r="AE397" s="2"/>
     </row>
-    <row r="398" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A398" s="3">
         <v>5.2199074074074075E-3</v>
       </c>
@@ -18397,7 +18397,7 @@
       <c r="AD398" s="2"/>
       <c r="AE398" s="2"/>
     </row>
-    <row r="399" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A399" s="3">
         <v>5.2662037037037035E-3</v>
       </c>
@@ -18438,7 +18438,7 @@
       <c r="AD399" s="2"/>
       <c r="AE399" s="2"/>
     </row>
-    <row r="400" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A400" s="3">
         <v>5.2893518518518515E-3</v>
       </c>
@@ -18479,7 +18479,7 @@
       <c r="AD400" s="2"/>
       <c r="AE400" s="2"/>
     </row>
-    <row r="401" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A401" s="3">
         <v>5.4050925925925924E-3</v>
       </c>
@@ -18520,7 +18520,7 @@
       <c r="AD401" s="2"/>
       <c r="AE401" s="2"/>
     </row>
-    <row r="402" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A402" s="3">
         <v>5.4398148148148149E-3</v>
       </c>
@@ -18561,7 +18561,7 @@
       <c r="AD402" s="2"/>
       <c r="AE402" s="2"/>
     </row>
-    <row r="403" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A403" s="3">
         <v>5.4513888888888893E-3</v>
       </c>
@@ -18602,7 +18602,7 @@
       <c r="AD403" s="2"/>
       <c r="AE403" s="2"/>
     </row>
-    <row r="404" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A404" s="3">
         <v>5.4745370370370373E-3</v>
       </c>
@@ -18643,7 +18643,7 @@
       <c r="AD404" s="2"/>
       <c r="AE404" s="2"/>
     </row>
-    <row r="405" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A405" s="3">
         <v>5.5092592592592589E-3</v>
       </c>
@@ -18684,7 +18684,7 @@
       <c r="AD405" s="2"/>
       <c r="AE405" s="2"/>
     </row>
-    <row r="406" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A406" s="3">
         <v>5.5555555555555558E-3</v>
       </c>
@@ -18725,7 +18725,7 @@
       <c r="AD406" s="2"/>
       <c r="AE406" s="2"/>
     </row>
-    <row r="407" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A407" s="3">
         <v>5.5787037037037038E-3</v>
       </c>
@@ -18766,7 +18766,7 @@
       <c r="AD407" s="2"/>
       <c r="AE407" s="2"/>
     </row>
-    <row r="408" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A408" s="3">
         <v>5.6134259259259262E-3</v>
       </c>
@@ -18807,7 +18807,7 @@
       <c r="AD408" s="2"/>
       <c r="AE408" s="2"/>
     </row>
-    <row r="409" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A409" s="3">
         <v>5.6365740740740742E-3</v>
       </c>
@@ -18848,7 +18848,7 @@
       <c r="AD409" s="2"/>
       <c r="AE409" s="2"/>
     </row>
-    <row r="410" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A410" s="3">
         <v>5.7060185185185183E-3</v>
       </c>
@@ -18889,7 +18889,7 @@
       <c r="AD410" s="2"/>
       <c r="AE410" s="2"/>
     </row>
-    <row r="411" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A411" s="3">
         <v>5.7291666666666663E-3</v>
       </c>
@@ -18930,7 +18930,7 @@
       <c r="AD411" s="2"/>
       <c r="AE411" s="2"/>
     </row>
-    <row r="412" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A412" s="3">
         <v>5.8333333333333336E-3</v>
       </c>
@@ -18971,7 +18971,7 @@
       <c r="AD412" s="2"/>
       <c r="AE412" s="2"/>
     </row>
-    <row r="413" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A413" s="3">
         <v>5.8796296296296296E-3</v>
       </c>
@@ -19012,7 +19012,7 @@
       <c r="AD413" s="2"/>
       <c r="AE413" s="2"/>
     </row>
-    <row r="414" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A414" s="3">
         <v>5.9490740740740745E-3</v>
       </c>
@@ -19053,7 +19053,7 @@
       <c r="AD414" s="2"/>
       <c r="AE414" s="2"/>
     </row>
-    <row r="415" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A415" s="3">
         <v>6.0648148148148145E-3</v>
       </c>
@@ -19094,7 +19094,7 @@
       <c r="AD415" s="2"/>
       <c r="AE415" s="2"/>
     </row>
-    <row r="416" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A416" s="3">
         <v>6.1111111111111114E-3</v>
       </c>
@@ -19135,7 +19135,7 @@
       <c r="AD416" s="2"/>
       <c r="AE416" s="2"/>
     </row>
-    <row r="417" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A417" s="3">
         <v>6.1342592592592594E-3</v>
       </c>
@@ -19176,7 +19176,7 @@
       <c r="AD417" s="2"/>
       <c r="AE417" s="2"/>
     </row>
-    <row r="418" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A418" s="3">
         <v>6.1574074074074074E-3</v>
       </c>
@@ -19217,7 +19217,7 @@
       <c r="AD418" s="2"/>
       <c r="AE418" s="2"/>
     </row>
-    <row r="419" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A419" s="3">
         <v>6.1921296296296299E-3</v>
       </c>
@@ -19258,7 +19258,7 @@
       <c r="AD419" s="2"/>
       <c r="AE419" s="2"/>
     </row>
-    <row r="420" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A420" s="3">
         <v>6.2152777777777779E-3</v>
       </c>
@@ -19299,7 +19299,7 @@
       <c r="AD420" s="2"/>
       <c r="AE420" s="2"/>
     </row>
-    <row r="421" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A421" s="3">
         <v>6.2500000000000003E-3</v>
       </c>
@@ -19340,7 +19340,7 @@
       <c r="AD421" s="2"/>
       <c r="AE421" s="2"/>
     </row>
-    <row r="422" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A422" s="3">
         <v>6.3310185185185188E-3</v>
       </c>
@@ -19381,7 +19381,7 @@
       <c r="AD422" s="2"/>
       <c r="AE422" s="2"/>
     </row>
-    <row r="423" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A423" s="3">
         <v>6.3310185185185188E-3</v>
       </c>
@@ -19422,7 +19422,7 @@
       <c r="AD423" s="2"/>
       <c r="AE423" s="2"/>
     </row>
-    <row r="424" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A424" s="3">
         <v>6.3541666666666668E-3</v>
       </c>
@@ -19463,7 +19463,7 @@
       <c r="AD424" s="2"/>
       <c r="AE424" s="2"/>
     </row>
-    <row r="425" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A425" s="3">
         <v>6.3888888888888893E-3</v>
       </c>
@@ -19504,7 +19504,7 @@
       <c r="AD425" s="2"/>
       <c r="AE425" s="2"/>
     </row>
-    <row r="426" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A426" s="3">
         <v>6.4814814814814813E-3</v>
       </c>
@@ -19545,7 +19545,7 @@
       <c r="AD426" s="2"/>
       <c r="AE426" s="2"/>
     </row>
-    <row r="427" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A427" s="3">
         <v>6.5046296296296293E-3</v>
       </c>
@@ -19586,7 +19586,7 @@
       <c r="AD427" s="2"/>
       <c r="AE427" s="2"/>
     </row>
-    <row r="428" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A428" s="3">
         <v>6.5509259259259262E-3</v>
       </c>
@@ -19627,7 +19627,7 @@
       <c r="AD428" s="2"/>
       <c r="AE428" s="2"/>
     </row>
-    <row r="429" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A429" s="3">
         <v>6.5509259259259262E-3</v>
       </c>
@@ -19668,7 +19668,7 @@
       <c r="AD429" s="2"/>
       <c r="AE429" s="2"/>
     </row>
-    <row r="430" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A430" s="3">
         <v>6.5509259259259262E-3</v>
       </c>
@@ -19709,7 +19709,7 @@
       <c r="AD430" s="2"/>
       <c r="AE430" s="2"/>
     </row>
-    <row r="431" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>363</v>
       </c>
@@ -19746,7 +19746,7 @@
       <c r="AD431" s="2"/>
       <c r="AE431" s="2"/>
     </row>
-    <row r="432" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A432" s="3">
         <v>4.6296296296296294E-5</v>
       </c>
@@ -19787,7 +19787,7 @@
       <c r="AD432" s="2"/>
       <c r="AE432" s="2"/>
     </row>
-    <row r="433" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A433" s="3">
         <v>1.0416666666666667E-4</v>
       </c>
@@ -19828,7 +19828,7 @@
       <c r="AD433" s="2"/>
       <c r="AE433" s="2"/>
     </row>
-    <row r="434" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A434" s="3">
         <v>1.7361111111111112E-4</v>
       </c>
@@ -19869,7 +19869,7 @@
       <c r="AD434" s="2"/>
       <c r="AE434" s="2"/>
     </row>
-    <row r="435" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A435" s="3">
         <v>3.3564814814814812E-4</v>
       </c>
@@ -19910,7 +19910,7 @@
       <c r="AD435" s="2"/>
       <c r="AE435" s="2"/>
     </row>
-    <row r="436" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A436" s="3">
         <v>3.7037037037037035E-4</v>
       </c>
@@ -19951,7 +19951,7 @@
       <c r="AD436" s="2"/>
       <c r="AE436" s="2"/>
     </row>
-    <row r="437" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A437" s="3">
         <v>4.0509259259259258E-4</v>
       </c>
@@ -19992,7 +19992,7 @@
       <c r="AD437" s="2"/>
       <c r="AE437" s="2"/>
     </row>
-    <row r="438" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A438" s="3">
         <v>5.3240740740740744E-4</v>
       </c>
@@ -20033,7 +20033,7 @@
       <c r="AD438" s="2"/>
       <c r="AE438" s="2"/>
     </row>
-    <row r="439" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A439" s="3">
         <v>5.6712962962962967E-4</v>
       </c>
@@ -20074,7 +20074,7 @@
       <c r="AD439" s="2"/>
       <c r="AE439" s="2"/>
     </row>
-    <row r="440" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A440" s="3">
         <v>6.2500000000000001E-4</v>
       </c>
@@ -20115,7 +20115,7 @@
       <c r="AD440" s="2"/>
       <c r="AE440" s="2"/>
     </row>
-    <row r="441" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A441" s="3">
         <v>7.7546296296296293E-4</v>
       </c>
@@ -20156,7 +20156,7 @@
       <c r="AD441" s="2"/>
       <c r="AE441" s="2"/>
     </row>
-    <row r="442" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A442" s="3">
         <v>8.1018518518518516E-4</v>
       </c>
@@ -20197,7 +20197,7 @@
       <c r="AD442" s="2"/>
       <c r="AE442" s="2"/>
     </row>
-    <row r="443" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A443" s="3">
         <v>8.564814814814815E-4</v>
       </c>
@@ -20238,7 +20238,7 @@
       <c r="AD443" s="2"/>
       <c r="AE443" s="2"/>
     </row>
-    <row r="444" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A444" s="3">
         <v>9.6064814814814819E-4</v>
       </c>
@@ -20279,7 +20279,7 @@
       <c r="AD444" s="2"/>
       <c r="AE444" s="2"/>
     </row>
-    <row r="445" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A445" s="3">
         <v>1.0185185185185184E-3</v>
       </c>
@@ -20320,7 +20320,7 @@
       <c r="AD445" s="2"/>
       <c r="AE445" s="2"/>
     </row>
-    <row r="446" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A446" s="3">
         <v>1.1458333333333333E-3</v>
       </c>
@@ -20361,7 +20361,7 @@
       <c r="AD446" s="2"/>
       <c r="AE446" s="2"/>
     </row>
-    <row r="447" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A447" s="3">
         <v>1.2731481481481483E-3</v>
       </c>
@@ -20402,7 +20402,7 @@
       <c r="AD447" s="2"/>
       <c r="AE447" s="2"/>
     </row>
-    <row r="448" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A448" s="3">
         <v>1.3425925925925925E-3</v>
       </c>
@@ -20443,7 +20443,7 @@
       <c r="AD448" s="2"/>
       <c r="AE448" s="2"/>
     </row>
-    <row r="449" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A449" s="3">
         <v>1.3888888888888889E-3</v>
       </c>
@@ -20484,7 +20484,7 @@
       <c r="AD449" s="2"/>
       <c r="AE449" s="2"/>
     </row>
-    <row r="450" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A450" s="3">
         <v>1.4467592592592592E-3</v>
       </c>
@@ -20525,7 +20525,7 @@
       <c r="AD450" s="2"/>
       <c r="AE450" s="2"/>
     </row>
-    <row r="451" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A451" s="3">
         <v>1.5277777777777779E-3</v>
       </c>
@@ -20564,7 +20564,7 @@
       <c r="AD451" s="2"/>
       <c r="AE451" s="2"/>
     </row>
-    <row r="452" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A452" s="3">
         <v>1.7939814814814815E-3</v>
       </c>
@@ -20605,7 +20605,7 @@
       <c r="AD452" s="2"/>
       <c r="AE452" s="2"/>
     </row>
-    <row r="453" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A453" s="3">
         <v>1.8402777777777777E-3</v>
       </c>
@@ -20646,7 +20646,7 @@
       <c r="AD453" s="2"/>
       <c r="AE453" s="2"/>
     </row>
-    <row r="454" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A454" s="3">
         <v>1.9212962962962964E-3</v>
       </c>
@@ -20687,7 +20687,7 @@
       <c r="AD454" s="2"/>
       <c r="AE454" s="2"/>
     </row>
-    <row r="455" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A455" s="3">
         <v>1.9444444444444444E-3</v>
       </c>
@@ -20728,7 +20728,7 @@
       <c r="AD455" s="2"/>
       <c r="AE455" s="2"/>
     </row>
-    <row r="456" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A456" s="3">
         <v>2.0138888888888888E-3</v>
       </c>
@@ -20769,7 +20769,7 @@
       <c r="AD456" s="2"/>
       <c r="AE456" s="2"/>
     </row>
-    <row r="457" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A457" s="3">
         <v>2.0949074074074073E-3</v>
       </c>
@@ -20810,7 +20810,7 @@
       <c r="AD457" s="2"/>
       <c r="AE457" s="2"/>
     </row>
-    <row r="458" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A458" s="3">
         <v>2.2222222222222222E-3</v>
       </c>
@@ -20851,7 +20851,7 @@
       <c r="AD458" s="2"/>
       <c r="AE458" s="2"/>
     </row>
-    <row r="459" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A459" s="3">
         <v>2.2800925925925927E-3</v>
       </c>
@@ -20892,7 +20892,7 @@
       <c r="AD459" s="2"/>
       <c r="AE459" s="2"/>
     </row>
-    <row r="460" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A460" s="3">
         <v>2.3263888888888887E-3</v>
       </c>
@@ -20933,7 +20933,7 @@
       <c r="AD460" s="2"/>
       <c r="AE460" s="2"/>
     </row>
-    <row r="461" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A461" s="3">
         <v>2.3495370370370371E-3</v>
       </c>
@@ -20974,7 +20974,7 @@
       <c r="AD461" s="2"/>
       <c r="AE461" s="2"/>
     </row>
-    <row r="462" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A462" s="3">
         <v>2.3726851851851851E-3</v>
       </c>
@@ -21015,7 +21015,7 @@
       <c r="AD462" s="2"/>
       <c r="AE462" s="2"/>
     </row>
-    <row r="463" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A463" s="3">
         <v>2.4305555555555556E-3</v>
       </c>
@@ -21056,7 +21056,7 @@
       <c r="AD463" s="2"/>
       <c r="AE463" s="2"/>
     </row>
-    <row r="464" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A464" s="3">
         <v>2.4537037037037036E-3</v>
       </c>
@@ -21097,7 +21097,7 @@
       <c r="AD464" s="2"/>
       <c r="AE464" s="2"/>
     </row>
-    <row r="465" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A465" s="3">
         <v>2.5231481481481481E-3</v>
       </c>
@@ -21138,7 +21138,7 @@
       <c r="AD465" s="2"/>
       <c r="AE465" s="2"/>
     </row>
-    <row r="466" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A466" s="3">
         <v>2.6157407407407405E-3</v>
       </c>
@@ -21179,7 +21179,7 @@
       <c r="AD466" s="2"/>
       <c r="AE466" s="2"/>
     </row>
-    <row r="467" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A467" s="3">
         <v>2.7083333333333334E-3</v>
       </c>
@@ -21220,7 +21220,7 @@
       <c r="AD467" s="2"/>
       <c r="AE467" s="2"/>
     </row>
-    <row r="468" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A468" s="3">
         <v>2.7546296296296294E-3</v>
       </c>
@@ -21261,7 +21261,7 @@
       <c r="AD468" s="2"/>
       <c r="AE468" s="2"/>
     </row>
-    <row r="469" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A469" s="3">
         <v>2.7893518518518519E-3</v>
       </c>
@@ -21302,7 +21302,7 @@
       <c r="AD469" s="2"/>
       <c r="AE469" s="2"/>
     </row>
-    <row r="470" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A470" s="3">
         <v>2.8240740740740739E-3</v>
       </c>
@@ -21343,7 +21343,7 @@
       <c r="AD470" s="2"/>
       <c r="AE470" s="2"/>
     </row>
-    <row r="471" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A471" s="3">
         <v>2.9861111111111113E-3</v>
       </c>
@@ -21384,7 +21384,7 @@
       <c r="AD471" s="2"/>
       <c r="AE471" s="2"/>
     </row>
-    <row r="472" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A472" s="3">
         <v>2.9861111111111113E-3</v>
       </c>
@@ -21425,7 +21425,7 @@
       <c r="AD472" s="2"/>
       <c r="AE472" s="2"/>
     </row>
-    <row r="473" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A473" s="3">
         <v>3.0671296296296297E-3</v>
       </c>
@@ -21466,7 +21466,7 @@
       <c r="AD473" s="2"/>
       <c r="AE473" s="2"/>
     </row>
-    <row r="474" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A474" s="3">
         <v>3.1365740740740742E-3</v>
       </c>
@@ -21507,7 +21507,7 @@
       <c r="AD474" s="2"/>
       <c r="AE474" s="2"/>
     </row>
-    <row r="475" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A475" s="3">
         <v>3.2060185185185186E-3</v>
       </c>
@@ -21548,7 +21548,7 @@
       <c r="AD475" s="2"/>
       <c r="AE475" s="2"/>
     </row>
-    <row r="476" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A476" s="3">
         <v>3.2291666666666666E-3</v>
       </c>
@@ -21589,7 +21589,7 @@
       <c r="AD476" s="2"/>
       <c r="AE476" s="2"/>
     </row>
-    <row r="477" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A477" s="3">
         <v>3.2754629629629631E-3</v>
       </c>
@@ -21630,7 +21630,7 @@
       <c r="AD477" s="2"/>
       <c r="AE477" s="2"/>
     </row>
-    <row r="478" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A478" s="3">
         <v>3.2986111111111111E-3</v>
       </c>
@@ -21671,7 +21671,7 @@
       <c r="AD478" s="2"/>
       <c r="AE478" s="2"/>
     </row>
-    <row r="479" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A479" s="3">
         <v>3.3333333333333335E-3</v>
       </c>
@@ -21712,7 +21712,7 @@
       <c r="AD479" s="2"/>
       <c r="AE479" s="2"/>
     </row>
-    <row r="480" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A480" s="3">
         <v>3.4375E-3</v>
       </c>
@@ -21753,7 +21753,7 @@
       <c r="AD480" s="2"/>
       <c r="AE480" s="2"/>
     </row>
-    <row r="481" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A481" s="3">
         <v>3.460648148148148E-3</v>
       </c>
@@ -21794,7 +21794,7 @@
       <c r="AD481" s="2"/>
       <c r="AE481" s="2"/>
     </row>
-    <row r="482" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A482" s="3">
         <v>3.472222222222222E-3</v>
       </c>
@@ -21835,7 +21835,7 @@
       <c r="AD482" s="2"/>
       <c r="AE482" s="2"/>
     </row>
-    <row r="483" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A483" s="3">
         <v>3.5532407407407409E-3</v>
       </c>
@@ -21876,7 +21876,7 @@
       <c r="AD483" s="2"/>
       <c r="AE483" s="2"/>
     </row>
-    <row r="484" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A484" s="3">
         <v>3.6574074074074074E-3</v>
       </c>
@@ -21917,7 +21917,7 @@
       <c r="AD484" s="2"/>
       <c r="AE484" s="2"/>
     </row>
-    <row r="485" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A485" s="3">
         <v>3.6689814814814814E-3</v>
       </c>
@@ -21958,7 +21958,7 @@
       <c r="AD485" s="2"/>
       <c r="AE485" s="2"/>
     </row>
-    <row r="486" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A486" s="3">
         <v>3.7384259259259259E-3</v>
       </c>
@@ -21999,7 +21999,7 @@
       <c r="AD486" s="2"/>
       <c r="AE486" s="2"/>
     </row>
-    <row r="487" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A487" s="3">
         <v>3.7384259259259259E-3</v>
       </c>
@@ -22040,7 +22040,7 @@
       <c r="AD487" s="2"/>
       <c r="AE487" s="2"/>
     </row>
-    <row r="488" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A488" s="3">
         <v>3.7384259259259259E-3</v>
       </c>
@@ -22081,7 +22081,7 @@
       <c r="AD488" s="2"/>
       <c r="AE488" s="2"/>
     </row>
-    <row r="489" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A489" s="3">
         <v>3.7847222222222223E-3</v>
       </c>
@@ -22122,7 +22122,7 @@
       <c r="AD489" s="2"/>
       <c r="AE489" s="2"/>
     </row>
-    <row r="490" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A490" s="3">
         <v>3.8541666666666668E-3</v>
       </c>
@@ -22163,7 +22163,7 @@
       <c r="AD490" s="2"/>
       <c r="AE490" s="2"/>
     </row>
-    <row r="491" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A491" s="3">
         <v>3.8541666666666668E-3</v>
       </c>
@@ -22204,7 +22204,7 @@
       <c r="AD491" s="2"/>
       <c r="AE491" s="2"/>
     </row>
-    <row r="492" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A492" s="3">
         <v>3.9814814814814817E-3</v>
       </c>
@@ -22245,7 +22245,7 @@
       <c r="AD492" s="2"/>
       <c r="AE492" s="2"/>
     </row>
-    <row r="493" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A493" s="3">
         <v>4.0046296296296297E-3</v>
       </c>
@@ -22286,7 +22286,7 @@
       <c r="AD493" s="2"/>
       <c r="AE493" s="2"/>
     </row>
-    <row r="494" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A494" s="3">
         <v>4.0856481481481481E-3</v>
       </c>
@@ -22327,7 +22327,7 @@
       <c r="AD494" s="2"/>
       <c r="AE494" s="2"/>
     </row>
-    <row r="495" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A495" s="3">
         <v>4.1087962962962962E-3</v>
       </c>
@@ -22368,7 +22368,7 @@
       <c r="AD495" s="2"/>
       <c r="AE495" s="2"/>
     </row>
-    <row r="496" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A496" s="3">
         <v>4.1898148148148146E-3</v>
       </c>
@@ -22409,7 +22409,7 @@
       <c r="AD496" s="2"/>
       <c r="AE496" s="2"/>
     </row>
-    <row r="497" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A497" s="3">
         <v>4.31712962962963E-3</v>
       </c>
@@ -22450,7 +22450,7 @@
       <c r="AD497" s="2"/>
       <c r="AE497" s="2"/>
     </row>
-    <row r="498" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A498" s="3">
         <v>4.4444444444444444E-3</v>
       </c>
@@ -22491,7 +22491,7 @@
       <c r="AD498" s="2"/>
       <c r="AE498" s="2"/>
     </row>
-    <row r="499" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A499" s="3">
         <v>4.5023148148148149E-3</v>
       </c>
@@ -22532,7 +22532,7 @@
       <c r="AD499" s="2"/>
       <c r="AE499" s="2"/>
     </row>
-    <row r="500" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A500" s="3">
         <v>4.5949074074074078E-3</v>
       </c>
@@ -22573,7 +22573,7 @@
       <c r="AD500" s="2"/>
       <c r="AE500" s="2"/>
     </row>
-    <row r="501" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A501" s="3">
         <v>4.6296296296296294E-3</v>
       </c>
@@ -22614,7 +22614,7 @@
       <c r="AD501" s="2"/>
       <c r="AE501" s="2"/>
     </row>
-    <row r="502" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A502" s="3">
         <v>4.6990740740740743E-3</v>
       </c>
@@ -22655,7 +22655,7 @@
       <c r="AD502" s="2"/>
       <c r="AE502" s="2"/>
     </row>
-    <row r="503" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A503" s="3">
         <v>4.7569444444444447E-3</v>
       </c>
@@ -22696,7 +22696,7 @@
       <c r="AD503" s="2"/>
       <c r="AE503" s="2"/>
     </row>
-    <row r="504" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A504" s="3">
         <v>4.7685185185185183E-3</v>
       </c>
@@ -22737,7 +22737,7 @@
       <c r="AD504" s="2"/>
       <c r="AE504" s="2"/>
     </row>
-    <row r="505" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A505" s="3">
         <v>4.8032407407407407E-3</v>
       </c>
@@ -22778,7 +22778,7 @@
       <c r="AD505" s="2"/>
       <c r="AE505" s="2"/>
     </row>
-    <row r="506" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A506" s="3">
         <v>4.8148148148148152E-3</v>
       </c>
@@ -22819,7 +22819,7 @@
       <c r="AD506" s="2"/>
       <c r="AE506" s="2"/>
     </row>
-    <row r="507" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A507" s="3">
         <v>4.8379629629629632E-3</v>
       </c>
@@ -22860,7 +22860,7 @@
       <c r="AD507" s="2"/>
       <c r="AE507" s="2"/>
     </row>
-    <row r="508" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A508" s="3">
         <v>4.8611111111111112E-3</v>
       </c>
@@ -22901,7 +22901,7 @@
       <c r="AD508" s="2"/>
       <c r="AE508" s="2"/>
     </row>
-    <row r="509" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A509" s="3">
         <v>4.9768518518518521E-3</v>
       </c>
@@ -22942,7 +22942,7 @@
       <c r="AD509" s="2"/>
       <c r="AE509" s="2"/>
     </row>
-    <row r="510" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A510" s="3">
         <v>5.0347222222222225E-3</v>
       </c>
@@ -22983,7 +22983,7 @@
       <c r="AD510" s="2"/>
       <c r="AE510" s="2"/>
     </row>
-    <row r="511" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A511" s="3">
         <v>5.0694444444444441E-3</v>
       </c>
@@ -23024,7 +23024,7 @@
       <c r="AD511" s="2"/>
       <c r="AE511" s="2"/>
     </row>
-    <row r="512" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A512" s="3">
         <v>5.0810185185185186E-3</v>
       </c>
@@ -23065,7 +23065,7 @@
       <c r="AD512" s="2"/>
       <c r="AE512" s="2"/>
     </row>
-    <row r="513" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A513" s="3">
         <v>5.1041666666666666E-3</v>
       </c>
@@ -23106,7 +23106,7 @@
       <c r="AD513" s="2"/>
       <c r="AE513" s="2"/>
     </row>
-    <row r="514" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A514" s="3">
         <v>5.1041666666666666E-3</v>
       </c>
@@ -23147,7 +23147,7 @@
       <c r="AD514" s="2"/>
       <c r="AE514" s="2"/>
     </row>
-    <row r="515" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A515" s="3">
         <v>5.1041666666666666E-3</v>
       </c>
@@ -23188,7 +23188,7 @@
       <c r="AD515" s="2"/>
       <c r="AE515" s="2"/>
     </row>
-    <row r="516" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A516" s="3">
         <v>5.1504629629629626E-3</v>
       </c>
@@ -23229,7 +23229,7 @@
       <c r="AD516" s="2"/>
       <c r="AE516" s="2"/>
     </row>
-    <row r="517" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A517" s="3">
         <v>5.1736111111111115E-3</v>
       </c>
@@ -23270,7 +23270,7 @@
       <c r="AD517" s="2"/>
       <c r="AE517" s="2"/>
     </row>
-    <row r="518" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A518" s="3">
         <v>5.2314814814814811E-3</v>
       </c>
@@ -23311,7 +23311,7 @@
       <c r="AD518" s="2"/>
       <c r="AE518" s="2"/>
     </row>
-    <row r="519" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A519" s="3">
         <v>5.2430555555555555E-3</v>
       </c>
@@ -23352,7 +23352,7 @@
       <c r="AD519" s="2"/>
       <c r="AE519" s="2"/>
     </row>
-    <row r="520" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A520" s="3">
         <v>5.2662037037037035E-3</v>
       </c>
@@ -23393,7 +23393,7 @@
       <c r="AD520" s="2"/>
       <c r="AE520" s="2"/>
     </row>
-    <row r="521" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A521" s="3">
         <v>5.2777777777777779E-3</v>
       </c>
@@ -23434,7 +23434,7 @@
       <c r="AD521" s="2"/>
       <c r="AE521" s="2"/>
     </row>
-    <row r="522" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A522" s="3">
         <v>5.324074074074074E-3</v>
       </c>
@@ -23475,7 +23475,7 @@
       <c r="AD522" s="2"/>
       <c r="AE522" s="2"/>
     </row>
-    <row r="523" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A523" s="3">
         <v>5.324074074074074E-3</v>
       </c>
@@ -23516,7 +23516,7 @@
       <c r="AD523" s="2"/>
       <c r="AE523" s="2"/>
     </row>
-    <row r="524" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A524" s="3">
         <v>5.324074074074074E-3</v>
       </c>
@@ -23557,7 +23557,7 @@
       <c r="AD524" s="2"/>
       <c r="AE524" s="2"/>
     </row>
-    <row r="525" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A525" s="3">
         <v>5.347222222222222E-3</v>
       </c>
@@ -23598,7 +23598,7 @@
       <c r="AD525" s="2"/>
       <c r="AE525" s="2"/>
     </row>
-    <row r="526" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A526" s="3">
         <v>5.4398148148148149E-3</v>
       </c>
@@ -23639,7 +23639,7 @@
       <c r="AD526" s="2"/>
       <c r="AE526" s="2"/>
     </row>
-    <row r="527" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A527" s="3">
         <v>5.4513888888888893E-3</v>
       </c>
@@ -23680,7 +23680,7 @@
       <c r="AD527" s="2"/>
       <c r="AE527" s="2"/>
     </row>
-    <row r="528" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A528" s="3">
         <v>5.5208333333333333E-3</v>
       </c>
@@ -23721,7 +23721,7 @@
       <c r="AD528" s="2"/>
       <c r="AE528" s="2"/>
     </row>
-    <row r="529" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A529" s="3">
         <v>5.5902777777777773E-3</v>
       </c>
@@ -23762,7 +23762,7 @@
       <c r="AD529" s="2"/>
       <c r="AE529" s="2"/>
     </row>
-    <row r="530" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A530" s="3">
         <v>5.6365740740740742E-3</v>
       </c>
@@ -23803,7 +23803,7 @@
       <c r="AD530" s="2"/>
       <c r="AE530" s="2"/>
     </row>
-    <row r="531" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A531" s="3">
         <v>5.6597222222222222E-3</v>
       </c>
@@ -23844,7 +23844,7 @@
       <c r="AD531" s="2"/>
       <c r="AE531" s="2"/>
     </row>
-    <row r="532" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A532" s="3">
         <v>5.6828703703703702E-3</v>
       </c>
@@ -23885,7 +23885,7 @@
       <c r="AD532" s="2"/>
       <c r="AE532" s="2"/>
     </row>
-    <row r="533" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A533" s="3">
         <v>5.7523148148148151E-3</v>
       </c>
@@ -23926,7 +23926,7 @@
       <c r="AD533" s="2"/>
       <c r="AE533" s="2"/>
     </row>
-    <row r="534" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A534" s="3">
         <v>5.8101851851851856E-3</v>
       </c>
@@ -23967,7 +23967,7 @@
       <c r="AD534" s="2"/>
       <c r="AE534" s="2"/>
     </row>
-    <row r="535" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A535" s="3">
         <v>5.8449074074074072E-3</v>
       </c>
@@ -24008,7 +24008,7 @@
       <c r="AD535" s="2"/>
       <c r="AE535" s="2"/>
     </row>
-    <row r="536" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A536" s="3">
         <v>5.9143518518518521E-3</v>
       </c>
@@ -24049,7 +24049,7 @@
       <c r="AD536" s="2"/>
       <c r="AE536" s="2"/>
     </row>
-    <row r="537" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A537" s="3">
         <v>5.9143518518518521E-3</v>
       </c>
@@ -24090,7 +24090,7 @@
       <c r="AD537" s="2"/>
       <c r="AE537" s="2"/>
     </row>
-    <row r="538" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A538" s="3">
         <v>5.9259259259259256E-3</v>
       </c>
@@ -24131,7 +24131,7 @@
       <c r="AD538" s="2"/>
       <c r="AE538" s="2"/>
     </row>
-    <row r="539" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A539" s="3">
         <v>5.9375000000000001E-3</v>
       </c>
@@ -24172,7 +24172,7 @@
       <c r="AD539" s="2"/>
       <c r="AE539" s="2"/>
     </row>
-    <row r="540" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A540" s="3">
         <v>5.9953703703703705E-3</v>
       </c>
@@ -24213,7 +24213,7 @@
       <c r="AD540" s="2"/>
       <c r="AE540" s="2"/>
     </row>
-    <row r="541" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A541" s="3">
         <v>6.0879629629629626E-3</v>
       </c>
@@ -24254,7 +24254,7 @@
       <c r="AD541" s="2"/>
       <c r="AE541" s="2"/>
     </row>
-    <row r="542" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A542" s="3">
         <v>6.1574074074074074E-3</v>
       </c>
@@ -24295,7 +24295,7 @@
       <c r="AD542" s="2"/>
       <c r="AE542" s="2"/>
     </row>
-    <row r="543" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A543" s="3">
         <v>6.2384259259259259E-3</v>
       </c>
@@ -24336,7 +24336,7 @@
       <c r="AD543" s="2"/>
       <c r="AE543" s="2"/>
     </row>
-    <row r="544" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A544" s="3">
         <v>6.2615740740740739E-3</v>
       </c>
@@ -24377,7 +24377,7 @@
       <c r="AD544" s="2"/>
       <c r="AE544" s="2"/>
     </row>
-    <row r="545" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A545" s="3">
         <v>6.2731481481481484E-3</v>
       </c>
@@ -24418,7 +24418,7 @@
       <c r="AD545" s="2"/>
       <c r="AE545" s="2"/>
     </row>
-    <row r="546" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A546" s="3">
         <v>6.3541666666666668E-3</v>
       </c>
@@ -24459,7 +24459,7 @@
       <c r="AD546" s="2"/>
       <c r="AE546" s="2"/>
     </row>
-    <row r="547" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A547" s="3">
         <v>6.3657407407407404E-3</v>
       </c>
@@ -24500,7 +24500,7 @@
       <c r="AD547" s="2"/>
       <c r="AE547" s="2"/>
     </row>
-    <row r="548" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A548" s="3">
         <v>6.3888888888888893E-3</v>
       </c>
@@ -24541,7 +24541,7 @@
       <c r="AD548" s="2"/>
       <c r="AE548" s="2"/>
     </row>
-    <row r="549" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A549" s="3">
         <v>6.4351851851851853E-3</v>
       </c>
@@ -24582,7 +24582,7 @@
       <c r="AD549" s="2"/>
       <c r="AE549" s="2"/>
     </row>
-    <row r="550" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A550" s="3">
         <v>6.5046296296296293E-3</v>
       </c>
@@ -24623,7 +24623,7 @@
       <c r="AD550" s="2"/>
       <c r="AE550" s="2"/>
     </row>
-    <row r="551" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A551" s="3">
         <v>6.6782407407407407E-3</v>
       </c>
@@ -24664,7 +24664,7 @@
       <c r="AD551" s="2"/>
       <c r="AE551" s="2"/>
     </row>
-    <row r="552" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A552" s="3">
         <v>6.8865740740740745E-3</v>
       </c>
@@ -24705,7 +24705,7 @@
       <c r="AD552" s="2"/>
       <c r="AE552" s="2"/>
     </row>
-    <row r="553" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A553" s="3">
         <v>6.9560185185185185E-3</v>
       </c>
@@ -24746,7 +24746,7 @@
       <c r="AD553" s="2"/>
       <c r="AE553" s="2"/>
     </row>
-    <row r="554" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A554" s="3">
         <v>7.013888888888889E-3</v>
       </c>
@@ -24787,7 +24787,7 @@
       <c r="AD554" s="2"/>
       <c r="AE554" s="2"/>
     </row>
-    <row r="555" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A555" s="3">
         <v>7.1064814814814819E-3</v>
       </c>
@@ -24828,7 +24828,7 @@
       <c r="AD555" s="2"/>
       <c r="AE555" s="2"/>
     </row>
-    <row r="556" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A556" s="3">
         <v>7.1064814814814819E-3</v>
       </c>
@@ -24869,7 +24869,7 @@
       <c r="AD556" s="2"/>
       <c r="AE556" s="2"/>
     </row>
-    <row r="557" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A557" s="3">
         <v>7.1527777777777779E-3</v>
       </c>
@@ -24910,7 +24910,7 @@
       <c r="AD557" s="2"/>
       <c r="AE557" s="2"/>
     </row>
-    <row r="558" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A558" s="3">
         <v>7.2106481481481483E-3</v>
       </c>
@@ -24951,7 +24951,7 @@
       <c r="AD558" s="2"/>
       <c r="AE558" s="2"/>
     </row>
-    <row r="559" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A559" s="3">
         <v>7.3148148148148148E-3</v>
       </c>
@@ -24992,7 +24992,7 @@
       <c r="AD559" s="2"/>
       <c r="AE559" s="2"/>
     </row>
-    <row r="560" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A560" s="3">
         <v>7.3379629629629628E-3</v>
       </c>
@@ -25033,7 +25033,7 @@
       <c r="AD560" s="2"/>
       <c r="AE560" s="2"/>
     </row>
-    <row r="561" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A561" s="3">
         <v>7.3495370370370372E-3</v>
       </c>
@@ -25074,7 +25074,7 @@
       <c r="AD561" s="2"/>
       <c r="AE561" s="2"/>
     </row>
-    <row r="562" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A562" s="3">
         <v>7.4074074074074077E-3</v>
       </c>
@@ -25115,7 +25115,7 @@
       <c r="AD562" s="2"/>
       <c r="AE562" s="2"/>
     </row>
-    <row r="563" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A563" s="3">
         <v>7.4652777777777781E-3</v>
       </c>
@@ -25156,7 +25156,7 @@
       <c r="AD563" s="2"/>
       <c r="AE563" s="2"/>
     </row>
-    <row r="564" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A564" s="3">
         <v>7.4652777777777781E-3</v>
       </c>
@@ -25197,7 +25197,7 @@
       <c r="AD564" s="2"/>
       <c r="AE564" s="2"/>
     </row>
-    <row r="565" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A565" s="3">
         <v>7.5347222222222222E-3</v>
       </c>
@@ -25238,7 +25238,7 @@
       <c r="AD565" s="2"/>
       <c r="AE565" s="2"/>
     </row>
-    <row r="566" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A566" s="3">
         <v>7.5694444444444446E-3</v>
       </c>
@@ -25279,7 +25279,7 @@
       <c r="AD566" s="2"/>
       <c r="AE566" s="2"/>
     </row>
-    <row r="567" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A567" s="3">
         <v>7.5810185185185182E-3</v>
       </c>
@@ -25320,7 +25320,7 @@
       <c r="AD567" s="2"/>
       <c r="AE567" s="2"/>
     </row>
-    <row r="568" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A568" s="3">
         <v>7.6157407407407406E-3</v>
       </c>
@@ -25361,7 +25361,7 @@
       <c r="AD568" s="2"/>
       <c r="AE568" s="2"/>
     </row>
-    <row r="569" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A569" s="3">
         <v>7.6504629629629631E-3</v>
       </c>
@@ -25402,7 +25402,7 @@
       <c r="AD569" s="2"/>
       <c r="AE569" s="2"/>
     </row>
-    <row r="570" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A570" s="3">
         <v>7.8125E-3</v>
       </c>
@@ -25443,7 +25443,7 @@
       <c r="AD570" s="2"/>
       <c r="AE570" s="2"/>
     </row>
-    <row r="571" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A571" s="3">
         <v>7.8356481481481489E-3</v>
       </c>
@@ -25484,7 +25484,7 @@
       <c r="AD571" s="2"/>
       <c r="AE571" s="2"/>
     </row>
-    <row r="572" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A572" s="3">
         <v>7.8935185185185185E-3</v>
       </c>
@@ -25525,7 +25525,7 @@
       <c r="AD572" s="2"/>
       <c r="AE572" s="2"/>
     </row>
-    <row r="573" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A573" s="3">
         <v>7.9166666666666673E-3</v>
       </c>
@@ -25566,7 +25566,7 @@
       <c r="AD573" s="2"/>
       <c r="AE573" s="2"/>
     </row>
-    <row r="574" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A574" s="3">
         <v>7.9629629629629634E-3</v>
       </c>
@@ -25607,7 +25607,7 @@
       <c r="AD574" s="2"/>
       <c r="AE574" s="2"/>
     </row>
-    <row r="575" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A575" s="3">
         <v>7.9629629629629634E-3</v>
       </c>
@@ -25648,7 +25648,7 @@
       <c r="AD575" s="2"/>
       <c r="AE575" s="2"/>
     </row>
-    <row r="576" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A576" s="3">
         <v>7.9629629629629634E-3</v>
       </c>
@@ -25689,7 +25689,7 @@
       <c r="AD576" s="2"/>
       <c r="AE576" s="2"/>
     </row>
-    <row r="577" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A577" s="3">
         <v>8.0439814814814818E-3</v>
       </c>
@@ -25730,7 +25730,7 @@
       <c r="AD577" s="2"/>
       <c r="AE577" s="2"/>
     </row>
-    <row r="578" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A578" s="3">
         <v>8.1134259259259267E-3</v>
       </c>
@@ -25771,7 +25771,7 @@
       <c r="AD578" s="2"/>
       <c r="AE578" s="2"/>
     </row>
-    <row r="579" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A579" s="3">
         <v>8.1250000000000003E-3</v>
       </c>
@@ -25812,7 +25812,7 @@
       <c r="AD579" s="2"/>
       <c r="AE579" s="2"/>
     </row>
-    <row r="580" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A580" s="3">
         <v>8.1944444444444452E-3</v>
       </c>
@@ -25853,7 +25853,7 @@
       <c r="AD580" s="2"/>
       <c r="AE580" s="2"/>
     </row>
-    <row r="581" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A581" s="3">
         <v>8.1944444444444452E-3</v>
       </c>
@@ -25894,7 +25894,7 @@
       <c r="AD581" s="2"/>
       <c r="AE581" s="2"/>
     </row>
-    <row r="582" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A582" s="3">
         <v>8.2638888888888883E-3</v>
       </c>
@@ -25935,7 +25935,7 @@
       <c r="AD582" s="2"/>
       <c r="AE582" s="2"/>
     </row>
-    <row r="583" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A583" s="3">
         <v>8.2754629629629636E-3</v>
       </c>
@@ -25976,7 +25976,7 @@
       <c r="AD583" s="2"/>
       <c r="AE583" s="2"/>
     </row>
-    <row r="584" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A584" s="3">
         <v>8.3101851851851843E-3</v>
       </c>
@@ -26017,7 +26017,7 @@
       <c r="AD584" s="2"/>
       <c r="AE584" s="2"/>
     </row>
-    <row r="585" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A585" s="3">
         <v>8.3333333333333332E-3</v>
       </c>
@@ -26058,7 +26058,7 @@
       <c r="AD585" s="2"/>
       <c r="AE585" s="2"/>
     </row>
-    <row r="586" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A586" s="3">
         <v>8.3564814814814821E-3</v>
       </c>
@@ -26099,7 +26099,7 @@
       <c r="AD586" s="2"/>
       <c r="AE586" s="2"/>
     </row>
-    <row r="587" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A587" s="3">
         <v>8.4375000000000006E-3</v>
       </c>
@@ -26140,7 +26140,7 @@
       <c r="AD587" s="2"/>
       <c r="AE587" s="2"/>
     </row>
-    <row r="588" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A588" s="3">
         <v>8.4837962962962966E-3</v>
       </c>
@@ -26181,7 +26181,7 @@
       <c r="AD588" s="2"/>
       <c r="AE588" s="2"/>
     </row>
-    <row r="589" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A589" s="3">
         <v>8.564814814814815E-3</v>
       </c>
@@ -26222,7 +26222,7 @@
       <c r="AD589" s="2"/>
       <c r="AE589" s="2"/>
     </row>
-    <row r="590" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A590" s="3">
         <v>8.5763888888888886E-3</v>
       </c>
@@ -26263,7 +26263,7 @@
       <c r="AD590" s="2"/>
       <c r="AE590" s="2"/>
     </row>
-    <row r="591" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A591" s="3">
         <v>8.6805555555555559E-3</v>
       </c>
@@ -26304,7 +26304,7 @@
       <c r="AD591" s="2"/>
       <c r="AE591" s="2"/>
     </row>
-    <row r="592" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A592" s="3">
         <v>8.726851851851852E-3</v>
       </c>
@@ -26345,7 +26345,7 @@
       <c r="AD592" s="2"/>
       <c r="AE592" s="2"/>
     </row>
-    <row r="593" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A593" s="3">
         <v>8.7615740740740744E-3</v>
       </c>
@@ -26386,7 +26386,7 @@
       <c r="AD593" s="2"/>
       <c r="AE593" s="2"/>
     </row>
-    <row r="594" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A594" s="3">
         <v>8.8310185185185193E-3</v>
       </c>
@@ -26427,7 +26427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="595" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A595" s="3">
         <v>9.0624999999999994E-3</v>
       </c>
@@ -26468,7 +26468,7 @@
       <c r="AD595" s="2"/>
       <c r="AE595" s="2"/>
     </row>
-    <row r="596" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A596" s="3">
         <v>9.1782407407407403E-3</v>
       </c>
@@ -26509,7 +26509,7 @@
       <c r="AD596" s="2"/>
       <c r="AE596" s="2"/>
     </row>
-    <row r="597" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A597" s="3">
         <v>9.2129629629629627E-3</v>
       </c>
@@ -26550,7 +26550,7 @@
       <c r="AD597" s="2"/>
       <c r="AE597" s="2"/>
     </row>
-    <row r="598" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A598" s="3">
         <v>9.2245370370370363E-3</v>
       </c>
@@ -26591,7 +26591,7 @@
       <c r="AD598" s="2"/>
       <c r="AE598" s="2"/>
     </row>
-    <row r="599" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A599" s="3">
         <v>9.2592592592592587E-3</v>
       </c>
@@ -26632,7 +26632,7 @@
       <c r="AD599" s="2"/>
       <c r="AE599" s="2"/>
     </row>
-    <row r="600" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A600" s="3">
         <v>9.2708333333333341E-3</v>
       </c>
@@ -26673,7 +26673,7 @@
       <c r="AD600" s="2"/>
       <c r="AE600" s="2"/>
     </row>
-    <row r="601" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A601" s="3">
         <v>9.2939814814814812E-3</v>
       </c>
@@ -26714,7 +26714,7 @@
       <c r="AD601" s="2"/>
       <c r="AE601" s="2"/>
     </row>
-    <row r="602" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A602" s="3">
         <v>9.2939814814814812E-3</v>
       </c>
@@ -26755,7 +26755,7 @@
       <c r="AD602" s="2"/>
       <c r="AE602" s="2"/>
     </row>
-    <row r="603" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A603" s="3">
         <v>1.273148148148148E-4</v>
       </c>
@@ -26796,7 +26796,7 @@
       <c r="AD603" s="2"/>
       <c r="AE603" s="2"/>
     </row>
-    <row r="604" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A604" s="3">
         <v>1.3888888888888889E-4</v>
       </c>
@@ -26837,7 +26837,7 @@
       <c r="AD604" s="2"/>
       <c r="AE604" s="2"/>
     </row>
-    <row r="605" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A605" s="3">
         <v>1.8518518518518518E-4</v>
       </c>
@@ -26878,7 +26878,7 @@
       <c r="AD605" s="2"/>
       <c r="AE605" s="2"/>
     </row>
-    <row r="606" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A606" s="3">
         <v>2.0833333333333335E-4</v>
       </c>
@@ -26919,7 +26919,7 @@
       <c r="AD606" s="2"/>
       <c r="AE606" s="2"/>
     </row>
-    <row r="607" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A607" s="3">
         <v>2.8935185185185184E-4</v>
       </c>
@@ -26960,7 +26960,7 @@
       <c r="AD607" s="2"/>
       <c r="AE607" s="2"/>
     </row>
-    <row r="608" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A608" s="3">
         <v>3.2407407407407406E-4</v>
       </c>
@@ -27001,7 +27001,7 @@
       <c r="AD608" s="2"/>
       <c r="AE608" s="2"/>
     </row>
-    <row r="609" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A609" s="3">
         <v>3.4722222222222224E-4</v>
       </c>
@@ -27042,7 +27042,7 @@
       <c r="AD609" s="2"/>
       <c r="AE609" s="2"/>
     </row>
-    <row r="610" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A610" s="3">
         <v>4.5138888888888887E-4</v>
       </c>
@@ -27083,7 +27083,7 @@
       <c r="AD610" s="2"/>
       <c r="AE610" s="2"/>
     </row>
-    <row r="611" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A611" s="3">
         <v>4.861111111111111E-4</v>
       </c>
@@ -27124,7 +27124,7 @@
       <c r="AD611" s="2"/>
       <c r="AE611" s="2"/>
     </row>
-    <row r="612" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A612" s="3">
         <v>5.6712962962962967E-4</v>
       </c>
@@ -27165,7 +27165,7 @@
       <c r="AD612" s="2"/>
       <c r="AE612" s="2"/>
     </row>
-    <row r="613" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A613" s="3">
         <v>6.4814814814814813E-4</v>
       </c>
@@ -27206,7 +27206,7 @@
       <c r="AD613" s="2"/>
       <c r="AE613" s="2"/>
     </row>
-    <row r="614" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A614" s="3">
         <v>6.7129629629629625E-4</v>
       </c>
@@ -27247,7 +27247,7 @@
       <c r="AD614" s="2"/>
       <c r="AE614" s="2"/>
     </row>
-    <row r="615" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A615" s="3">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -27288,7 +27288,7 @@
       <c r="AD615" s="2"/>
       <c r="AE615" s="2"/>
     </row>
-    <row r="616" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A616" s="3">
         <v>7.7546296296296293E-4</v>
       </c>
@@ -27329,7 +27329,7 @@
       <c r="AD616" s="2"/>
       <c r="AE616" s="2"/>
     </row>
-    <row r="617" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A617" s="3">
         <v>8.1018518518518516E-4</v>
       </c>
@@ -27370,7 +27370,7 @@
       <c r="AD617" s="2"/>
       <c r="AE617" s="2"/>
     </row>
-    <row r="618" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A618" s="3">
         <v>9.3749999999999997E-4</v>
       </c>
@@ -27411,7 +27411,7 @@
       <c r="AD618" s="2"/>
       <c r="AE618" s="2"/>
     </row>
-    <row r="619" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A619" s="3">
         <v>1.0069444444444444E-3</v>
       </c>
@@ -27452,7 +27452,7 @@
       <c r="AD619" s="2"/>
       <c r="AE619" s="2"/>
     </row>
-    <row r="620" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A620" s="3">
         <v>1.0069444444444444E-3</v>
       </c>
@@ -27493,7 +27493,7 @@
       <c r="AD620" s="2"/>
       <c r="AE620" s="2"/>
     </row>
-    <row r="621" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A621" s="3">
         <v>1.0416666666666667E-3</v>
       </c>
@@ -27534,7 +27534,7 @@
       <c r="AD621" s="2"/>
       <c r="AE621" s="2"/>
     </row>
-    <row r="622" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A622" s="3">
         <v>1.1458333333333333E-3</v>
       </c>
@@ -27575,7 +27575,7 @@
       <c r="AD622" s="2"/>
       <c r="AE622" s="2"/>
     </row>
-    <row r="623" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A623" s="3">
         <v>1.1805555555555556E-3</v>
       </c>
@@ -27616,7 +27616,7 @@
       <c r="AD623" s="2"/>
       <c r="AE623" s="2"/>
     </row>
-    <row r="624" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A624" s="3">
         <v>1.1805555555555556E-3</v>
       </c>
@@ -27657,7 +27657,7 @@
       <c r="AD624" s="2"/>
       <c r="AE624" s="2"/>
     </row>
-    <row r="625" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A625" s="3">
         <v>1.2268518518518518E-3</v>
       </c>
@@ -27698,7 +27698,7 @@
       <c r="AD625" s="2"/>
       <c r="AE625" s="2"/>
     </row>
-    <row r="626" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A626" s="3">
         <v>1.2847222222222223E-3</v>
       </c>
@@ -27739,7 +27739,7 @@
       <c r="AD626" s="2"/>
       <c r="AE626" s="2"/>
     </row>
-    <row r="627" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A627" s="3">
         <v>1.3078703703703703E-3</v>
       </c>
@@ -27780,7 +27780,7 @@
       <c r="AD627" s="2"/>
       <c r="AE627" s="2"/>
     </row>
-    <row r="628" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A628" s="3">
         <v>1.3425925925925925E-3</v>
       </c>
@@ -27821,7 +27821,7 @@
       <c r="AD628" s="2"/>
       <c r="AE628" s="2"/>
     </row>
-    <row r="629" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A629" s="3">
         <v>1.4351851851851852E-3</v>
       </c>
@@ -27862,7 +27862,7 @@
       <c r="AD629" s="2"/>
       <c r="AE629" s="2"/>
     </row>
-    <row r="630" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A630" s="3">
         <v>1.4467592592592592E-3</v>
       </c>
@@ -27903,7 +27903,7 @@
       <c r="AD630" s="2"/>
       <c r="AE630" s="2"/>
     </row>
-    <row r="631" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A631" s="3">
         <v>1.4814814814814814E-3</v>
       </c>
@@ -27944,7 +27944,7 @@
       <c r="AD631" s="2"/>
       <c r="AE631" s="2"/>
     </row>
-    <row r="632" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A632" s="3">
         <v>1.5162037037037036E-3</v>
       </c>
@@ -27985,7 +27985,7 @@
       <c r="AD632" s="2"/>
       <c r="AE632" s="2"/>
     </row>
-    <row r="633" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A633" s="3">
         <v>1.5162037037037036E-3</v>
       </c>
@@ -28026,7 +28026,7 @@
       <c r="AD633" s="2"/>
       <c r="AE633" s="2"/>
     </row>
-    <row r="634" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A634" s="3">
         <v>1.5625000000000001E-3</v>
       </c>
@@ -28067,7 +28067,7 @@
       <c r="AD634" s="2"/>
       <c r="AE634" s="2"/>
     </row>
-    <row r="635" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A635" s="3">
         <v>1.6898148148148148E-3</v>
       </c>
@@ -28108,7 +28108,7 @@
       <c r="AD635" s="2"/>
       <c r="AE635" s="2"/>
     </row>
-    <row r="636" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A636" s="3">
         <v>1.8055555555555555E-3</v>
       </c>
@@ -28149,7 +28149,7 @@
       <c r="AD636" s="2"/>
       <c r="AE636" s="2"/>
     </row>
-    <row r="637" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A637" s="3">
         <v>1.8865740740740742E-3</v>
       </c>
@@ -28190,7 +28190,7 @@
       <c r="AD637" s="2"/>
       <c r="AE637" s="2"/>
     </row>
-    <row r="638" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A638" s="3">
         <v>1.9097222222222222E-3</v>
       </c>
@@ -28231,7 +28231,7 @@
       <c r="AD638" s="2"/>
       <c r="AE638" s="2"/>
     </row>
-    <row r="639" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A639" s="3">
         <v>1.9444444444444444E-3</v>
       </c>
@@ -28272,7 +28272,7 @@
       <c r="AD639" s="2"/>
       <c r="AE639" s="2"/>
     </row>
-    <row r="640" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A640" s="3">
         <v>2.0023148148148148E-3</v>
       </c>
@@ -28313,7 +28313,7 @@
       <c r="AD640" s="2"/>
       <c r="AE640" s="2"/>
     </row>
-    <row r="641" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A641" s="3">
         <v>2.0254629629629629E-3</v>
       </c>
@@ -28354,7 +28354,7 @@
       <c r="AD641" s="2"/>
       <c r="AE641" s="2"/>
     </row>
-    <row r="642" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A642" s="3">
         <v>2.0601851851851853E-3</v>
       </c>
@@ -28395,7 +28395,7 @@
       <c r="AD642" s="2"/>
       <c r="AE642" s="2"/>
     </row>
-    <row r="643" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A643" s="3">
         <v>2.0949074074074073E-3</v>
       </c>
@@ -28436,7 +28436,7 @@
       <c r="AD643" s="2"/>
       <c r="AE643" s="2"/>
     </row>
-    <row r="644" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A644" s="3">
         <v>2.1296296296296298E-3</v>
       </c>
@@ -28477,7 +28477,7 @@
       <c r="AD644" s="2"/>
       <c r="AE644" s="2"/>
     </row>
-    <row r="645" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A645" s="3">
         <v>2.1412037037037038E-3</v>
       </c>
@@ -28518,7 +28518,7 @@
       <c r="AD645" s="2"/>
       <c r="AE645" s="2"/>
     </row>
-    <row r="646" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A646" s="3">
         <v>2.1527777777777778E-3</v>
       </c>
@@ -28559,7 +28559,7 @@
       <c r="AD646" s="2"/>
       <c r="AE646" s="2"/>
     </row>
-    <row r="647" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A647" s="3">
         <v>2.1875000000000002E-3</v>
       </c>
@@ -28600,7 +28600,7 @@
       <c r="AD647" s="2"/>
       <c r="AE647" s="2"/>
     </row>
-    <row r="648" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A648" s="3">
         <v>2.2106481481481482E-3</v>
       </c>
@@ -28641,7 +28641,7 @@
       <c r="AD648" s="2"/>
       <c r="AE648" s="2"/>
     </row>
-    <row r="649" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A649" s="3">
         <v>2.3263888888888887E-3</v>
       </c>
@@ -28682,7 +28682,7 @@
       <c r="AD649" s="2"/>
       <c r="AE649" s="2"/>
     </row>
-    <row r="650" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A650" s="3">
         <v>2.4421296296296296E-3</v>
       </c>
@@ -28723,7 +28723,7 @@
       <c r="AD650" s="2"/>
       <c r="AE650" s="2"/>
     </row>
-    <row r="651" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A651" s="3">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -28764,7 +28764,7 @@
       <c r="AD651" s="2"/>
       <c r="AE651" s="2"/>
     </row>
-    <row r="652" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A652" s="3">
         <v>2.5925925925925925E-3</v>
       </c>
@@ -28805,7 +28805,7 @@
       <c r="AD652" s="2"/>
       <c r="AE652" s="2"/>
     </row>
-    <row r="653" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A653" s="3">
         <v>2.662037037037037E-3</v>
       </c>
@@ -28846,7 +28846,7 @@
       <c r="AD653" s="2"/>
       <c r="AE653" s="2"/>
     </row>
-    <row r="654" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A654" s="3">
         <v>2.8819444444444444E-3</v>
       </c>
@@ -28887,7 +28887,7 @@
       <c r="AD654" s="2"/>
       <c r="AE654" s="2"/>
     </row>
-    <row r="655" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A655" s="3">
         <v>2.9976851851851853E-3</v>
       </c>
@@ -28928,7 +28928,7 @@
       <c r="AD655" s="2"/>
       <c r="AE655" s="2"/>
     </row>
-    <row r="656" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A656" s="3">
         <v>3.0208333333333333E-3</v>
       </c>
@@ -28969,7 +28969,7 @@
       <c r="AD656" s="2"/>
       <c r="AE656" s="2"/>
     </row>
-    <row r="657" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A657" s="3">
         <v>3.0902777777777777E-3</v>
       </c>
@@ -29010,7 +29010,7 @@
       <c r="AD657" s="2"/>
       <c r="AE657" s="2"/>
     </row>
-    <row r="658" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A658" s="3">
         <v>3.1018518518518517E-3</v>
       </c>
@@ -29051,7 +29051,7 @@
       <c r="AD658" s="2"/>
       <c r="AE658" s="2"/>
     </row>
-    <row r="659" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A659" s="3">
         <v>3.1597222222222222E-3</v>
       </c>
@@ -29092,7 +29092,7 @@
       <c r="AD659" s="2"/>
       <c r="AE659" s="2"/>
     </row>
-    <row r="660" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A660" s="3">
         <v>3.1944444444444446E-3</v>
       </c>
@@ -29133,7 +29133,7 @@
       <c r="AD660" s="2"/>
       <c r="AE660" s="2"/>
     </row>
-    <row r="661" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A661" s="3">
         <v>3.5069444444444445E-3</v>
       </c>
@@ -29174,7 +29174,7 @@
       <c r="AD661" s="2"/>
       <c r="AE661" s="2"/>
     </row>
-    <row r="662" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A662" s="3">
         <v>3.6111111111111109E-3</v>
       </c>
@@ -29215,7 +29215,7 @@
       <c r="AD662" s="2"/>
       <c r="AE662" s="2"/>
     </row>
-    <row r="663" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A663" s="3">
         <v>3.6805555555555554E-3</v>
       </c>
@@ -29256,7 +29256,7 @@
       <c r="AD663" s="2"/>
       <c r="AE663" s="2"/>
     </row>
-    <row r="664" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A664" s="3">
         <v>3.7384259259259259E-3</v>
       </c>
@@ -29297,7 +29297,7 @@
       <c r="AD664" s="2"/>
       <c r="AE664" s="2"/>
     </row>
-    <row r="665" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A665" s="3">
         <v>3.7499999999999999E-3</v>
       </c>
@@ -29338,7 +29338,7 @@
       <c r="AD665" s="2"/>
       <c r="AE665" s="2"/>
     </row>
-    <row r="666" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A666" s="3">
         <v>3.9120370370370368E-3</v>
       </c>
@@ -29379,7 +29379,7 @@
       <c r="AD666" s="2"/>
       <c r="AE666" s="2"/>
     </row>
-    <row r="667" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A667" s="3">
         <v>3.9236111111111112E-3</v>
       </c>
@@ -29420,7 +29420,7 @@
       <c r="AD667" s="2"/>
       <c r="AE667" s="2"/>
     </row>
-    <row r="668" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A668" s="3">
         <v>3.9699074074074072E-3</v>
       </c>
@@ -29461,7 +29461,7 @@
       <c r="AD668" s="2"/>
       <c r="AE668" s="2"/>
     </row>
-    <row r="669" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A669" s="3">
         <v>4.0740740740740737E-3</v>
       </c>
@@ -29502,7 +29502,7 @@
       <c r="AD669" s="2"/>
       <c r="AE669" s="2"/>
     </row>
-    <row r="670" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A670" s="3">
         <v>4.2361111111111115E-3</v>
       </c>
@@ -29543,7 +29543,7 @@
       <c r="AD670" s="2"/>
       <c r="AE670" s="2"/>
     </row>
-    <row r="671" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A671" s="3">
         <v>4.2708333333333331E-3</v>
       </c>
@@ -29584,7 +29584,7 @@
       <c r="AD671" s="2"/>
       <c r="AE671" s="2"/>
     </row>
-    <row r="672" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A672" s="3">
         <v>4.3518518518518515E-3</v>
       </c>
@@ -29625,7 +29625,7 @@
       <c r="AD672" s="2"/>
       <c r="AE672" s="2"/>
     </row>
-    <row r="673" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A673" s="3">
         <v>4.386574074074074E-3</v>
       </c>
@@ -29666,7 +29666,7 @@
       <c r="AD673" s="2"/>
       <c r="AE673" s="2"/>
     </row>
-    <row r="674" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A674" s="3">
         <v>4.4907407407407405E-3</v>
       </c>
@@ -29707,7 +29707,7 @@
       <c r="AD674" s="2"/>
       <c r="AE674" s="2"/>
     </row>
-    <row r="675" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A675" s="3">
         <v>4.5486111111111109E-3</v>
       </c>
@@ -29748,7 +29748,7 @@
       <c r="AD675" s="2"/>
       <c r="AE675" s="2"/>
     </row>
-    <row r="676" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A676" s="3">
         <v>4.5601851851851853E-3</v>
       </c>
@@ -29789,7 +29789,7 @@
       <c r="AD676" s="2"/>
       <c r="AE676" s="2"/>
     </row>
-    <row r="677" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A677" s="3">
         <v>4.5949074074074078E-3</v>
       </c>
@@ -29830,7 +29830,7 @@
       <c r="AD677" s="2"/>
       <c r="AE677" s="2"/>
     </row>
-    <row r="678" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A678" s="3">
         <v>4.6412037037037038E-3</v>
       </c>
@@ -29871,7 +29871,7 @@
       <c r="AD678" s="2"/>
       <c r="AE678" s="2"/>
     </row>
-    <row r="679" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A679" s="3">
         <v>4.6643518518518518E-3</v>
       </c>
@@ -29912,7 +29912,7 @@
       <c r="AD679" s="2"/>
       <c r="AE679" s="2"/>
     </row>
-    <row r="680" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A680" s="3">
         <v>4.6759259259259263E-3</v>
       </c>
@@ -29953,7 +29953,7 @@
       <c r="AD680" s="2"/>
       <c r="AE680" s="2"/>
     </row>
-    <row r="681" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A681" s="3">
         <v>4.7222222222222223E-3</v>
       </c>
@@ -29994,7 +29994,7 @@
       <c r="AD681" s="2"/>
       <c r="AE681" s="2"/>
     </row>
-    <row r="682" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A682" s="3">
         <v>4.7337962962962967E-3</v>
       </c>
@@ -30035,7 +30035,7 @@
       <c r="AD682" s="2"/>
       <c r="AE682" s="2"/>
     </row>
-    <row r="683" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A683" s="3">
         <v>4.8495370370370368E-3</v>
       </c>
@@ -30076,7 +30076,7 @@
       <c r="AD683" s="2"/>
       <c r="AE683" s="2"/>
     </row>
-    <row r="684" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A684" s="3">
         <v>4.8495370370370368E-3</v>
       </c>
@@ -30117,7 +30117,7 @@
       <c r="AD684" s="2"/>
       <c r="AE684" s="2"/>
     </row>
-    <row r="685" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A685" s="3">
         <v>4.8842592592592592E-3</v>
       </c>
@@ -30158,7 +30158,7 @@
       <c r="AD685" s="2"/>
       <c r="AE685" s="2"/>
     </row>
-    <row r="686" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A686" s="3">
         <v>4.9074074074074072E-3</v>
       </c>
